--- a/metadata/excel/projects/uppsala_universitet/merce_temp_change/metadata.xlsx
+++ b/metadata/excel/projects/uppsala_universitet/merce_temp_change/metadata.xlsx
@@ -16,10 +16,10 @@
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <customWorkbookViews>
+    <customWorkbookView name="LS - Personal View" guid="{06B92370-743D-804F-912C-658BE37B1274}" mergeInterval="0" personalView="1" maximized="1" windowWidth="2556" windowHeight="1244" tabRatio="500" activeSheetId="1"/>
+    <customWorkbookView name="Kemal - Personal View" guid="{CB40A2B6-4618-A74E-89AF-8E1F0A1F3C2E}" mergeInterval="0" personalView="1" xWindow="184" yWindow="84" windowWidth="1280" windowHeight="749" tabRatio="500" activeSheetId="1"/>
+    <customWorkbookView name="Me - Personal View" guid="{22DA4066-82A0-D143-AA10-416CFBE3149D}" mergeInterval="0" personalView="1" xWindow="46" yWindow="23" windowWidth="1436" windowHeight="854" tabRatio="500" activeSheetId="1" showStatusbar="0"/>
     <customWorkbookView name="Microsoft Office User - Personal View" guid="{31EA8456-A0B1-A842-BBBA-1FCBF1E560D2}" mergeInterval="0" personalView="1" maximized="1" windowWidth="2556" windowHeight="1244" tabRatio="500" activeSheetId="1"/>
-    <customWorkbookView name="Me - Personal View" guid="{22DA4066-82A0-D143-AA10-416CFBE3149D}" mergeInterval="0" personalView="1" xWindow="46" yWindow="23" windowWidth="1436" windowHeight="854" tabRatio="500" activeSheetId="1" showStatusbar="0"/>
-    <customWorkbookView name="Kemal - Personal View" guid="{CB40A2B6-4618-A74E-89AF-8E1F0A1F3C2E}" mergeInterval="0" personalView="1" xWindow="184" yWindow="84" windowWidth="1280" windowHeight="749" tabRatio="500" activeSheetId="1"/>
-    <customWorkbookView name="LS - Personal View" guid="{06B92370-743D-804F-912C-658BE37B1274}" mergeInterval="0" personalView="1" maximized="1" windowWidth="2556" windowHeight="1244" tabRatio="500" activeSheetId="1"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8473" uniqueCount="1503">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8434" uniqueCount="1504">
   <si>
     <t>Country</t>
   </si>
@@ -4633,6 +4633,9 @@
   </si>
   <si>
     <t>Initial_5.2</t>
+  </si>
+  <si>
+    <t>no</t>
   </si>
 </sst>
 </file>
@@ -4888,7 +4891,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="291">
+  <cellStyleXfs count="301">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -5180,6 +5183,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -5356,7 +5369,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="291">
+  <cellStyles count="301">
     <cellStyle name="Excel Built-in Normal" xfId="267"/>
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
@@ -5513,6 +5526,16 @@
     <cellStyle name="Followed Hyperlink" xfId="285" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="287" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="289" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="291" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="292" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="293" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="294" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="295" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="296" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="297" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="298" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="299" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="300" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -5649,7 +5672,7 @@
     <cellStyle name="Hyperlink" xfId="290" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="48">
+  <dxfs count="8">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -5657,421 +5680,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
         </patternFill>
       </fill>
     </dxf>
@@ -6485,10 +6093,10 @@
   </sheetPr>
   <dimension ref="A1:BZ211"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScaleNormal="107" zoomScalePageLayoutView="107" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A113" activePane="bottomLeft" state="frozenSplit"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScaleNormal="107" zoomScalePageLayoutView="107" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozenSplit"/>
       <selection activeCell="X1" sqref="X1"/>
-      <selection pane="bottomLeft" activeCell="L1048549" sqref="L1048549"/>
+      <selection pane="bottomLeft" activeCell="N185" sqref="N185"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6863,7 +6471,7 @@
     </row>
     <row r="3" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A3" s="10">
-        <f t="shared" ref="A3:A66" si="0">COUNTIF(D3,"&lt;&gt;"&amp;"")+COUNTIF(BM3,"&lt;&gt;"&amp;"")</f>
+        <f>COUNTIF(D3,"&lt;&gt;"&amp;"")+COUNTIF(BM3,"&lt;&gt;"&amp;"")</f>
         <v>2</v>
       </c>
       <c r="B3" s="17">
@@ -6896,9 +6504,7 @@
       <c r="L3" s="41" t="s">
         <v>866</v>
       </c>
-      <c r="M3" s="23" t="s">
-        <v>49</v>
-      </c>
+      <c r="M3" s="20"/>
       <c r="N3" s="29">
         <v>88950</v>
       </c>
@@ -7056,7 +6662,7 @@
     </row>
     <row r="4" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A4" s="10">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(D4,"&lt;&gt;"&amp;"")+COUNTIF(BM4,"&lt;&gt;"&amp;"")</f>
         <v>2</v>
       </c>
       <c r="B4" s="17">
@@ -7089,9 +6695,7 @@
       <c r="L4" s="41" t="s">
         <v>867</v>
       </c>
-      <c r="M4" s="23" t="s">
-        <v>49</v>
-      </c>
+      <c r="M4" s="20"/>
       <c r="N4" s="29">
         <v>81593</v>
       </c>
@@ -7249,7 +6853,7 @@
     </row>
     <row r="5" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A5" s="10">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(D5,"&lt;&gt;"&amp;"")+COUNTIF(BM5,"&lt;&gt;"&amp;"")</f>
         <v>2</v>
       </c>
       <c r="B5" s="17">
@@ -7282,9 +6886,7 @@
       <c r="L5" s="41" t="s">
         <v>868</v>
       </c>
-      <c r="M5" s="23" t="s">
-        <v>49</v>
-      </c>
+      <c r="M5" s="20"/>
       <c r="N5" s="29">
         <v>78829</v>
       </c>
@@ -7442,7 +7044,7 @@
     </row>
     <row r="6" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A6" s="10">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(D6,"&lt;&gt;"&amp;"")+COUNTIF(BM6,"&lt;&gt;"&amp;"")</f>
         <v>2</v>
       </c>
       <c r="B6" s="17">
@@ -7475,9 +7077,7 @@
       <c r="L6" s="41" t="s">
         <v>869</v>
       </c>
-      <c r="M6" s="23" t="s">
-        <v>49</v>
-      </c>
+      <c r="M6" s="20"/>
       <c r="N6" s="29">
         <v>1432</v>
       </c>
@@ -7635,7 +7235,7 @@
     </row>
     <row r="7" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A7" s="10">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(D7,"&lt;&gt;"&amp;"")+COUNTIF(BM7,"&lt;&gt;"&amp;"")</f>
         <v>2</v>
       </c>
       <c r="B7" s="17">
@@ -7668,9 +7268,7 @@
       <c r="L7" s="41" t="s">
         <v>870</v>
       </c>
-      <c r="M7" s="23" t="s">
-        <v>49</v>
-      </c>
+      <c r="M7" s="20"/>
       <c r="N7" s="29">
         <v>90989</v>
       </c>
@@ -7828,7 +7426,7 @@
     </row>
     <row r="8" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A8" s="10">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(D8,"&lt;&gt;"&amp;"")+COUNTIF(BM8,"&lt;&gt;"&amp;"")</f>
         <v>2</v>
       </c>
       <c r="B8" s="17">
@@ -7861,9 +7459,7 @@
       <c r="L8" s="41" t="s">
         <v>871</v>
       </c>
-      <c r="M8" s="23" t="s">
-        <v>49</v>
-      </c>
+      <c r="M8" s="20"/>
       <c r="N8" s="29">
         <v>75743</v>
       </c>
@@ -8021,7 +7617,7 @@
     </row>
     <row r="9" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A9" s="10">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(D9,"&lt;&gt;"&amp;"")+COUNTIF(BM9,"&lt;&gt;"&amp;"")</f>
         <v>2</v>
       </c>
       <c r="B9" s="17">
@@ -8054,9 +7650,7 @@
       <c r="L9" s="41" t="s">
         <v>872</v>
       </c>
-      <c r="M9" s="23" t="s">
-        <v>49</v>
-      </c>
+      <c r="M9" s="20"/>
       <c r="N9" s="29">
         <v>70248</v>
       </c>
@@ -8214,14 +7808,14 @@
     </row>
     <row r="10" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A10" s="10">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(D10,"&lt;&gt;"&amp;"")+COUNTIF(BM10,"&lt;&gt;"&amp;"")</f>
         <v>2</v>
       </c>
       <c r="B10" s="17">
         <v>8</v>
       </c>
       <c r="C10" s="20" t="s">
-        <v>69</v>
+        <v>1503</v>
       </c>
       <c r="D10" s="38" t="s">
         <v>1097</v>
@@ -8247,9 +7841,7 @@
       <c r="L10" s="41" t="s">
         <v>873</v>
       </c>
-      <c r="M10" s="23" t="s">
-        <v>49</v>
-      </c>
+      <c r="M10" s="20"/>
       <c r="N10" s="29">
         <v>98</v>
       </c>
@@ -8407,14 +7999,14 @@
     </row>
     <row r="11" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A11" s="10">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(D11,"&lt;&gt;"&amp;"")+COUNTIF(BM11,"&lt;&gt;"&amp;"")</f>
         <v>2</v>
       </c>
       <c r="B11" s="17">
         <v>9</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>69</v>
+        <v>1503</v>
       </c>
       <c r="D11" s="38" t="s">
         <v>1098</v>
@@ -8440,9 +8032,7 @@
       <c r="L11" s="41" t="s">
         <v>874</v>
       </c>
-      <c r="M11" s="23" t="s">
-        <v>49</v>
-      </c>
+      <c r="M11" s="20"/>
       <c r="N11" s="29">
         <v>118</v>
       </c>
@@ -8600,14 +8190,14 @@
     </row>
     <row r="12" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A12" s="10">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(D12,"&lt;&gt;"&amp;"")+COUNTIF(BM12,"&lt;&gt;"&amp;"")</f>
         <v>2</v>
       </c>
       <c r="B12" s="17">
         <v>10</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>69</v>
+        <v>1503</v>
       </c>
       <c r="D12" s="38" t="s">
         <v>1099</v>
@@ -8633,9 +8223,7 @@
       <c r="L12" s="41" t="s">
         <v>875</v>
       </c>
-      <c r="M12" s="23" t="s">
-        <v>49</v>
-      </c>
+      <c r="M12" s="20"/>
       <c r="N12" s="29">
         <v>118</v>
       </c>
@@ -8793,14 +8381,14 @@
     </row>
     <row r="13" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A13" s="10">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(D13,"&lt;&gt;"&amp;"")+COUNTIF(BM13,"&lt;&gt;"&amp;"")</f>
         <v>2</v>
       </c>
       <c r="B13" s="17">
         <v>11</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>69</v>
+        <v>1503</v>
       </c>
       <c r="D13" s="38" t="s">
         <v>1100</v>
@@ -8826,9 +8414,7 @@
       <c r="L13" s="41" t="s">
         <v>876</v>
       </c>
-      <c r="M13" s="23" t="s">
-        <v>49</v>
-      </c>
+      <c r="M13" s="20"/>
       <c r="N13" s="29">
         <v>68</v>
       </c>
@@ -8986,14 +8572,14 @@
     </row>
     <row r="14" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A14" s="10">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(D14,"&lt;&gt;"&amp;"")+COUNTIF(BM14,"&lt;&gt;"&amp;"")</f>
         <v>2</v>
       </c>
       <c r="B14" s="17">
         <v>12</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>69</v>
+        <v>1503</v>
       </c>
       <c r="D14" s="38" t="s">
         <v>1101</v>
@@ -9019,9 +8605,7 @@
       <c r="L14" s="41" t="s">
         <v>877</v>
       </c>
-      <c r="M14" s="23" t="s">
-        <v>49</v>
-      </c>
+      <c r="M14" s="20"/>
       <c r="N14" s="29">
         <v>355</v>
       </c>
@@ -9179,14 +8763,14 @@
     </row>
     <row r="15" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A15" s="10">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(D15,"&lt;&gt;"&amp;"")+COUNTIF(BM15,"&lt;&gt;"&amp;"")</f>
         <v>2</v>
       </c>
       <c r="B15" s="17">
         <v>13</v>
       </c>
       <c r="C15" s="20" t="s">
-        <v>69</v>
+        <v>1503</v>
       </c>
       <c r="D15" s="38" t="s">
         <v>1102</v>
@@ -9212,9 +8796,7 @@
       <c r="L15" s="41" t="s">
         <v>878</v>
       </c>
-      <c r="M15" s="23" t="s">
-        <v>49</v>
-      </c>
+      <c r="M15" s="20"/>
       <c r="N15" s="29">
         <v>36</v>
       </c>
@@ -9372,7 +8954,7 @@
     </row>
     <row r="16" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A16" s="10">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(D16,"&lt;&gt;"&amp;"")+COUNTIF(BM16,"&lt;&gt;"&amp;"")</f>
         <v>2</v>
       </c>
       <c r="B16" s="17">
@@ -9405,9 +8987,7 @@
       <c r="L16" s="41" t="s">
         <v>879</v>
       </c>
-      <c r="M16" s="23" t="s">
-        <v>49</v>
-      </c>
+      <c r="M16" s="20"/>
       <c r="N16" s="29">
         <v>85978</v>
       </c>
@@ -9565,7 +9145,7 @@
     </row>
     <row r="17" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A17" s="10">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(D17,"&lt;&gt;"&amp;"")+COUNTIF(BM17,"&lt;&gt;"&amp;"")</f>
         <v>2</v>
       </c>
       <c r="B17" s="17">
@@ -9598,9 +9178,7 @@
       <c r="L17" s="41" t="s">
         <v>880</v>
       </c>
-      <c r="M17" s="23" t="s">
-        <v>49</v>
-      </c>
+      <c r="M17" s="20"/>
       <c r="N17" s="29">
         <v>82159</v>
       </c>
@@ -9758,7 +9336,7 @@
     </row>
     <row r="18" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A18" s="10">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(D18,"&lt;&gt;"&amp;"")+COUNTIF(BM18,"&lt;&gt;"&amp;"")</f>
         <v>2</v>
       </c>
       <c r="B18" s="17">
@@ -9791,9 +9369,7 @@
       <c r="L18" s="41" t="s">
         <v>881</v>
       </c>
-      <c r="M18" s="23" t="s">
-        <v>49</v>
-      </c>
+      <c r="M18" s="20"/>
       <c r="N18" s="29">
         <v>3362</v>
       </c>
@@ -9951,7 +9527,7 @@
     </row>
     <row r="19" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A19" s="10">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(D19,"&lt;&gt;"&amp;"")+COUNTIF(BM19,"&lt;&gt;"&amp;"")</f>
         <v>2</v>
       </c>
       <c r="B19" s="17">
@@ -9984,9 +9560,7 @@
       <c r="L19" s="41" t="s">
         <v>882</v>
       </c>
-      <c r="M19" s="23" t="s">
-        <v>49</v>
-      </c>
+      <c r="M19" s="20"/>
       <c r="N19" s="29">
         <v>4497</v>
       </c>
@@ -10144,7 +9718,7 @@
     </row>
     <row r="20" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A20" s="10">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(D20,"&lt;&gt;"&amp;"")+COUNTIF(BM20,"&lt;&gt;"&amp;"")</f>
         <v>2</v>
       </c>
       <c r="B20" s="17">
@@ -10177,9 +9751,7 @@
       <c r="L20" s="41" t="s">
         <v>883</v>
       </c>
-      <c r="M20" s="23" t="s">
-        <v>49</v>
-      </c>
+      <c r="M20" s="20"/>
       <c r="N20" s="29">
         <v>7196</v>
       </c>
@@ -10337,7 +9909,7 @@
     </row>
     <row r="21" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A21" s="10">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(D21,"&lt;&gt;"&amp;"")+COUNTIF(BM21,"&lt;&gt;"&amp;"")</f>
         <v>2</v>
       </c>
       <c r="B21" s="17">
@@ -10370,9 +9942,7 @@
       <c r="L21" s="41" t="s">
         <v>884</v>
       </c>
-      <c r="M21" s="23" t="s">
-        <v>49</v>
-      </c>
+      <c r="M21" s="20"/>
       <c r="N21" s="29">
         <v>6625</v>
       </c>
@@ -10530,7 +10100,7 @@
     </row>
     <row r="22" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A22" s="10">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(D22,"&lt;&gt;"&amp;"")+COUNTIF(BM22,"&lt;&gt;"&amp;"")</f>
         <v>2</v>
       </c>
       <c r="B22" s="17">
@@ -10563,9 +10133,7 @@
       <c r="L22" s="41" t="s">
         <v>885</v>
       </c>
-      <c r="M22" s="23" t="s">
-        <v>49</v>
-      </c>
+      <c r="M22" s="20"/>
       <c r="N22" s="29">
         <v>92536</v>
       </c>
@@ -10723,7 +10291,7 @@
     </row>
     <row r="23" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A23" s="10">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(D23,"&lt;&gt;"&amp;"")+COUNTIF(BM23,"&lt;&gt;"&amp;"")</f>
         <v>2</v>
       </c>
       <c r="B23" s="17">
@@ -10756,9 +10324,7 @@
       <c r="L23" s="41" t="s">
         <v>886</v>
       </c>
-      <c r="M23" s="23" t="s">
-        <v>49</v>
-      </c>
+      <c r="M23" s="20"/>
       <c r="N23" s="29">
         <v>93992</v>
       </c>
@@ -10916,7 +10482,7 @@
     </row>
     <row r="24" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A24" s="10">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(D24,"&lt;&gt;"&amp;"")+COUNTIF(BM24,"&lt;&gt;"&amp;"")</f>
         <v>2</v>
       </c>
       <c r="B24" s="17">
@@ -10949,9 +10515,7 @@
       <c r="L24" s="41" t="s">
         <v>887</v>
       </c>
-      <c r="M24" s="23" t="s">
-        <v>49</v>
-      </c>
+      <c r="M24" s="20"/>
       <c r="N24" s="29">
         <v>93067</v>
       </c>
@@ -11109,7 +10673,7 @@
     </row>
     <row r="25" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A25" s="10">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(D25,"&lt;&gt;"&amp;"")+COUNTIF(BM25,"&lt;&gt;"&amp;"")</f>
         <v>2</v>
       </c>
       <c r="B25" s="17">
@@ -11142,9 +10706,7 @@
       <c r="L25" s="41" t="s">
         <v>888</v>
       </c>
-      <c r="M25" s="23" t="s">
-        <v>49</v>
-      </c>
+      <c r="M25" s="20"/>
       <c r="N25" s="29">
         <v>100196</v>
       </c>
@@ -11302,7 +10864,7 @@
     </row>
     <row r="26" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A26" s="10">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(D26,"&lt;&gt;"&amp;"")+COUNTIF(BM26,"&lt;&gt;"&amp;"")</f>
         <v>2</v>
       </c>
       <c r="B26" s="17">
@@ -11335,9 +10897,7 @@
       <c r="L26" s="41" t="s">
         <v>889</v>
       </c>
-      <c r="M26" s="23" t="s">
-        <v>49</v>
-      </c>
+      <c r="M26" s="20"/>
       <c r="N26" s="29">
         <v>112620</v>
       </c>
@@ -11495,7 +11055,7 @@
     </row>
     <row r="27" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A27" s="10">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(D27,"&lt;&gt;"&amp;"")+COUNTIF(BM27,"&lt;&gt;"&amp;"")</f>
         <v>2</v>
       </c>
       <c r="B27" s="17">
@@ -11528,9 +11088,7 @@
       <c r="L27" s="41" t="s">
         <v>890</v>
       </c>
-      <c r="M27" s="23" t="s">
-        <v>49</v>
-      </c>
+      <c r="M27" s="20"/>
       <c r="N27" s="29">
         <v>122319</v>
       </c>
@@ -11688,7 +11246,7 @@
     </row>
     <row r="28" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A28" s="10">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(D28,"&lt;&gt;"&amp;"")+COUNTIF(BM28,"&lt;&gt;"&amp;"")</f>
         <v>2</v>
       </c>
       <c r="B28" s="17">
@@ -11721,9 +11279,7 @@
       <c r="L28" s="41" t="s">
         <v>891</v>
       </c>
-      <c r="M28" s="23" t="s">
-        <v>49</v>
-      </c>
+      <c r="M28" s="20"/>
       <c r="N28" s="29">
         <v>95583</v>
       </c>
@@ -11881,7 +11437,7 @@
     </row>
     <row r="29" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A29" s="10">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(D29,"&lt;&gt;"&amp;"")+COUNTIF(BM29,"&lt;&gt;"&amp;"")</f>
         <v>2</v>
       </c>
       <c r="B29" s="17">
@@ -11914,9 +11470,7 @@
       <c r="L29" s="41" t="s">
         <v>892</v>
       </c>
-      <c r="M29" s="23" t="s">
-        <v>49</v>
-      </c>
+      <c r="M29" s="20"/>
       <c r="N29" s="29">
         <v>194254</v>
       </c>
@@ -12074,7 +11628,7 @@
     </row>
     <row r="30" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A30" s="10">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(D30,"&lt;&gt;"&amp;"")+COUNTIF(BM30,"&lt;&gt;"&amp;"")</f>
         <v>2</v>
       </c>
       <c r="B30" s="17">
@@ -12107,9 +11661,7 @@
       <c r="L30" s="41" t="s">
         <v>893</v>
       </c>
-      <c r="M30" s="23" t="s">
-        <v>49</v>
-      </c>
+      <c r="M30" s="20"/>
       <c r="N30" s="29">
         <v>211428</v>
       </c>
@@ -12267,7 +11819,7 @@
     </row>
     <row r="31" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A31" s="10">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(D31,"&lt;&gt;"&amp;"")+COUNTIF(BM31,"&lt;&gt;"&amp;"")</f>
         <v>2</v>
       </c>
       <c r="B31" s="17">
@@ -12300,9 +11852,7 @@
       <c r="L31" s="41" t="s">
         <v>894</v>
       </c>
-      <c r="M31" s="23" t="s">
-        <v>49</v>
-      </c>
+      <c r="M31" s="20"/>
       <c r="N31" s="29">
         <v>77067</v>
       </c>
@@ -12460,7 +12010,7 @@
     </row>
     <row r="32" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A32" s="10">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(D32,"&lt;&gt;"&amp;"")+COUNTIF(BM32,"&lt;&gt;"&amp;"")</f>
         <v>2</v>
       </c>
       <c r="B32" s="17">
@@ -12493,9 +12043,7 @@
       <c r="L32" s="41" t="s">
         <v>895</v>
       </c>
-      <c r="M32" s="23" t="s">
-        <v>49</v>
-      </c>
+      <c r="M32" s="20"/>
       <c r="N32" s="29">
         <v>179525</v>
       </c>
@@ -12653,7 +12201,7 @@
     </row>
     <row r="33" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A33" s="10">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(D33,"&lt;&gt;"&amp;"")+COUNTIF(BM33,"&lt;&gt;"&amp;"")</f>
         <v>2</v>
       </c>
       <c r="B33" s="17">
@@ -12686,9 +12234,7 @@
       <c r="L33" s="41" t="s">
         <v>896</v>
       </c>
-      <c r="M33" s="23" t="s">
-        <v>49</v>
-      </c>
+      <c r="M33" s="20"/>
       <c r="N33" s="29">
         <v>73555</v>
       </c>
@@ -12846,7 +12392,7 @@
     </row>
     <row r="34" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A34" s="10">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(D34,"&lt;&gt;"&amp;"")+COUNTIF(BM34,"&lt;&gt;"&amp;"")</f>
         <v>2</v>
       </c>
       <c r="B34" s="17">
@@ -12879,9 +12425,7 @@
       <c r="L34" s="41" t="s">
         <v>897</v>
       </c>
-      <c r="M34" s="23" t="s">
-        <v>49</v>
-      </c>
+      <c r="M34" s="20"/>
       <c r="N34" s="29">
         <v>194500</v>
       </c>
@@ -13039,7 +12583,7 @@
     </row>
     <row r="35" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A35" s="10">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(D35,"&lt;&gt;"&amp;"")+COUNTIF(BM35,"&lt;&gt;"&amp;"")</f>
         <v>2</v>
       </c>
       <c r="B35" s="17">
@@ -13073,9 +12617,7 @@
       <c r="L35" s="41" t="s">
         <v>898</v>
       </c>
-      <c r="M35" s="23" t="s">
-        <v>49</v>
-      </c>
+      <c r="M35" s="20"/>
       <c r="N35" s="29">
         <v>281102</v>
       </c>
@@ -13226,7 +12768,7 @@
     </row>
     <row r="36" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A36" s="10">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(D36,"&lt;&gt;"&amp;"")+COUNTIF(BM36,"&lt;&gt;"&amp;"")</f>
         <v>2</v>
       </c>
       <c r="B36" s="17">
@@ -13259,9 +12801,7 @@
       <c r="L36" s="41" t="s">
         <v>899</v>
       </c>
-      <c r="M36" s="23" t="s">
-        <v>49</v>
-      </c>
+      <c r="M36" s="20"/>
       <c r="N36" s="29">
         <v>101617</v>
       </c>
@@ -13404,7 +12944,7 @@
     </row>
     <row r="37" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A37" s="10">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(D37,"&lt;&gt;"&amp;"")+COUNTIF(BM37,"&lt;&gt;"&amp;"")</f>
         <v>2</v>
       </c>
       <c r="B37" s="17">
@@ -13437,9 +12977,7 @@
       <c r="L37" s="41" t="s">
         <v>900</v>
       </c>
-      <c r="M37" s="23" t="s">
-        <v>49</v>
-      </c>
+      <c r="M37" s="20"/>
       <c r="N37" s="29">
         <v>108168</v>
       </c>
@@ -13582,7 +13120,7 @@
     </row>
     <row r="38" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A38" s="10">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(D38,"&lt;&gt;"&amp;"")+COUNTIF(BM38,"&lt;&gt;"&amp;"")</f>
         <v>2</v>
       </c>
       <c r="B38" s="17">
@@ -13615,9 +13153,7 @@
       <c r="L38" s="41" t="s">
         <v>901</v>
       </c>
-      <c r="M38" s="23" t="s">
-        <v>49</v>
-      </c>
+      <c r="M38" s="20"/>
       <c r="N38" s="29">
         <v>118563</v>
       </c>
@@ -13760,7 +13296,7 @@
     </row>
     <row r="39" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A39" s="10">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(D39,"&lt;&gt;"&amp;"")+COUNTIF(BM39,"&lt;&gt;"&amp;"")</f>
         <v>2</v>
       </c>
       <c r="B39" s="17">
@@ -13793,9 +13329,7 @@
       <c r="L39" s="41" t="s">
         <v>902</v>
       </c>
-      <c r="M39" s="23" t="s">
-        <v>49</v>
-      </c>
+      <c r="M39" s="20"/>
       <c r="N39" s="29">
         <v>155646</v>
       </c>
@@ -13938,7 +13472,7 @@
     </row>
     <row r="40" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A40" s="10">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(D40,"&lt;&gt;"&amp;"")+COUNTIF(BM40,"&lt;&gt;"&amp;"")</f>
         <v>2</v>
       </c>
       <c r="B40" s="17">
@@ -13971,9 +13505,7 @@
       <c r="L40" s="41" t="s">
         <v>903</v>
       </c>
-      <c r="M40" s="23" t="s">
-        <v>49</v>
-      </c>
+      <c r="M40" s="20"/>
       <c r="N40" s="29">
         <v>111854</v>
       </c>
@@ -14116,7 +13648,7 @@
     </row>
     <row r="41" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A41" s="10">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(D41,"&lt;&gt;"&amp;"")+COUNTIF(BM41,"&lt;&gt;"&amp;"")</f>
         <v>2</v>
       </c>
       <c r="B41" s="17">
@@ -14149,9 +13681,7 @@
       <c r="L41" s="41" t="s">
         <v>904</v>
       </c>
-      <c r="M41" s="23" t="s">
-        <v>49</v>
-      </c>
+      <c r="M41" s="20"/>
       <c r="N41" s="29">
         <v>107666</v>
       </c>
@@ -14294,7 +13824,7 @@
     </row>
     <row r="42" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A42" s="10">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(D42,"&lt;&gt;"&amp;"")+COUNTIF(BM42,"&lt;&gt;"&amp;"")</f>
         <v>2</v>
       </c>
       <c r="B42" s="17">
@@ -14327,6 +13857,7 @@
       <c r="L42" s="41" t="s">
         <v>905</v>
       </c>
+      <c r="M42" s="20"/>
       <c r="N42" s="29">
         <v>96298</v>
       </c>
@@ -14469,7 +14000,7 @@
     </row>
     <row r="43" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A43" s="10">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(D43,"&lt;&gt;"&amp;"")+COUNTIF(BM43,"&lt;&gt;"&amp;"")</f>
         <v>2</v>
       </c>
       <c r="B43" s="17">
@@ -14502,6 +14033,7 @@
       <c r="L43" s="41" t="s">
         <v>906</v>
       </c>
+      <c r="M43" s="20"/>
       <c r="N43" s="29">
         <v>87644</v>
       </c>
@@ -14644,7 +14176,7 @@
     </row>
     <row r="44" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A44" s="10">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(D44,"&lt;&gt;"&amp;"")+COUNTIF(BM44,"&lt;&gt;"&amp;"")</f>
         <v>2</v>
       </c>
       <c r="B44" s="17">
@@ -14677,6 +14209,7 @@
       <c r="L44" s="41" t="s">
         <v>907</v>
       </c>
+      <c r="M44" s="20"/>
       <c r="N44" s="29">
         <v>91415</v>
       </c>
@@ -14819,14 +14352,14 @@
     </row>
     <row r="45" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A45" s="10">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(D45,"&lt;&gt;"&amp;"")+COUNTIF(BM45,"&lt;&gt;"&amp;"")</f>
         <v>2</v>
       </c>
       <c r="B45" s="17">
         <v>43</v>
       </c>
       <c r="C45" s="20" t="s">
-        <v>69</v>
+        <v>1503</v>
       </c>
       <c r="D45" s="38" t="s">
         <v>134</v>
@@ -14852,6 +14385,7 @@
       <c r="L45" s="41" t="s">
         <v>908</v>
       </c>
+      <c r="M45" s="20"/>
       <c r="N45" s="29">
         <v>206</v>
       </c>
@@ -14994,7 +14528,7 @@
     </row>
     <row r="46" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A46" s="10">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(D46,"&lt;&gt;"&amp;"")+COUNTIF(BM46,"&lt;&gt;"&amp;"")</f>
         <v>2</v>
       </c>
       <c r="B46" s="17">
@@ -15027,6 +14561,7 @@
       <c r="L46" s="41" t="s">
         <v>909</v>
       </c>
+      <c r="M46" s="20"/>
       <c r="N46" s="29">
         <v>3487</v>
       </c>
@@ -15169,14 +14704,14 @@
     </row>
     <row r="47" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A47" s="10">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(D47,"&lt;&gt;"&amp;"")+COUNTIF(BM47,"&lt;&gt;"&amp;"")</f>
         <v>2</v>
       </c>
       <c r="B47" s="17">
         <v>45</v>
       </c>
       <c r="C47" s="20" t="s">
-        <v>69</v>
+        <v>1503</v>
       </c>
       <c r="D47" s="38" t="s">
         <v>136</v>
@@ -15202,6 +14737,7 @@
       <c r="L47" s="41" t="s">
         <v>910</v>
       </c>
+      <c r="M47" s="20"/>
       <c r="N47" s="29">
         <v>247</v>
       </c>
@@ -15344,7 +14880,7 @@
     </row>
     <row r="48" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A48" s="10">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(D48,"&lt;&gt;"&amp;"")+COUNTIF(BM48,"&lt;&gt;"&amp;"")</f>
         <v>2</v>
       </c>
       <c r="B48" s="17">
@@ -15377,6 +14913,7 @@
       <c r="L48" s="41" t="s">
         <v>911</v>
       </c>
+      <c r="M48" s="20"/>
       <c r="N48" s="29">
         <v>93255</v>
       </c>
@@ -15519,7 +15056,7 @@
     </row>
     <row r="49" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A49" s="10">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(D49,"&lt;&gt;"&amp;"")+COUNTIF(BM49,"&lt;&gt;"&amp;"")</f>
         <v>2</v>
       </c>
       <c r="B49" s="17">
@@ -15552,6 +15089,7 @@
       <c r="L49" s="41" t="s">
         <v>912</v>
       </c>
+      <c r="M49" s="20"/>
       <c r="N49" s="29">
         <v>60252</v>
       </c>
@@ -15694,7 +15232,7 @@
     </row>
     <row r="50" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A50" s="10">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(D50,"&lt;&gt;"&amp;"")+COUNTIF(BM50,"&lt;&gt;"&amp;"")</f>
         <v>2</v>
       </c>
       <c r="B50" s="17">
@@ -15727,6 +15265,7 @@
       <c r="L50" s="41" t="s">
         <v>913</v>
       </c>
+      <c r="M50" s="20"/>
       <c r="N50" s="29">
         <v>71257</v>
       </c>
@@ -15869,7 +15408,7 @@
     </row>
     <row r="51" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A51" s="10">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(D51,"&lt;&gt;"&amp;"")+COUNTIF(BM51,"&lt;&gt;"&amp;"")</f>
         <v>2</v>
       </c>
       <c r="B51" s="17">
@@ -15902,6 +15441,7 @@
       <c r="L51" s="41" t="s">
         <v>914</v>
       </c>
+      <c r="M51" s="20"/>
       <c r="N51" s="29">
         <v>71704</v>
       </c>
@@ -16044,14 +15584,14 @@
     </row>
     <row r="52" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A52" s="10">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(D52,"&lt;&gt;"&amp;"")+COUNTIF(BM52,"&lt;&gt;"&amp;"")</f>
         <v>2</v>
       </c>
       <c r="B52" s="17">
         <v>50</v>
       </c>
       <c r="C52" s="20" t="s">
-        <v>69</v>
+        <v>1503</v>
       </c>
       <c r="D52" s="38" t="s">
         <v>141</v>
@@ -16077,6 +15617,7 @@
       <c r="L52" s="41" t="s">
         <v>915</v>
       </c>
+      <c r="M52" s="20"/>
       <c r="N52" s="29">
         <v>91</v>
       </c>
@@ -16219,7 +15760,7 @@
     </row>
     <row r="53" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A53" s="10">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(D53,"&lt;&gt;"&amp;"")+COUNTIF(BM53,"&lt;&gt;"&amp;"")</f>
         <v>2</v>
       </c>
       <c r="B53" s="17">
@@ -16252,6 +15793,7 @@
       <c r="L53" s="41" t="s">
         <v>916</v>
       </c>
+      <c r="M53" s="20"/>
       <c r="N53" s="29">
         <v>83450</v>
       </c>
@@ -16394,7 +15936,7 @@
     </row>
     <row r="54" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A54" s="10">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(D54,"&lt;&gt;"&amp;"")+COUNTIF(BM54,"&lt;&gt;"&amp;"")</f>
         <v>2</v>
       </c>
       <c r="B54" s="17">
@@ -16427,6 +15969,7 @@
       <c r="L54" s="41" t="s">
         <v>917</v>
       </c>
+      <c r="M54" s="20"/>
       <c r="N54" s="29">
         <v>95715</v>
       </c>
@@ -16569,7 +16112,7 @@
     </row>
     <row r="55" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A55" s="10">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(D55,"&lt;&gt;"&amp;"")+COUNTIF(BM55,"&lt;&gt;"&amp;"")</f>
         <v>2</v>
       </c>
       <c r="B55" s="17">
@@ -16602,6 +16145,7 @@
       <c r="L55" s="41" t="s">
         <v>918</v>
       </c>
+      <c r="M55" s="20"/>
       <c r="N55" s="29">
         <v>61887</v>
       </c>
@@ -16744,7 +16288,7 @@
     </row>
     <row r="56" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A56" s="10">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(D56,"&lt;&gt;"&amp;"")+COUNTIF(BM56,"&lt;&gt;"&amp;"")</f>
         <v>2</v>
       </c>
       <c r="B56" s="17">
@@ -16777,6 +16321,7 @@
       <c r="L56" s="41" t="s">
         <v>919</v>
       </c>
+      <c r="M56" s="20"/>
       <c r="N56" s="29">
         <v>102659</v>
       </c>
@@ -16919,7 +16464,7 @@
     </row>
     <row r="57" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A57" s="10">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(D57,"&lt;&gt;"&amp;"")+COUNTIF(BM57,"&lt;&gt;"&amp;"")</f>
         <v>2</v>
       </c>
       <c r="B57" s="17">
@@ -16952,6 +16497,7 @@
       <c r="L57" s="41" t="s">
         <v>920</v>
       </c>
+      <c r="M57" s="20"/>
       <c r="N57" s="29">
         <v>88904</v>
       </c>
@@ -17094,7 +16640,7 @@
     </row>
     <row r="58" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A58" s="10">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(D58,"&lt;&gt;"&amp;"")+COUNTIF(BM58,"&lt;&gt;"&amp;"")</f>
         <v>2</v>
       </c>
       <c r="B58" s="17">
@@ -17127,6 +16673,7 @@
       <c r="L58" s="41" t="s">
         <v>921</v>
       </c>
+      <c r="M58" s="20"/>
       <c r="N58" s="29">
         <v>97104</v>
       </c>
@@ -17269,7 +16816,7 @@
     </row>
     <row r="59" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A59" s="10">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(D59,"&lt;&gt;"&amp;"")+COUNTIF(BM59,"&lt;&gt;"&amp;"")</f>
         <v>2</v>
       </c>
       <c r="B59" s="17">
@@ -17302,6 +16849,7 @@
       <c r="L59" s="41" t="s">
         <v>922</v>
       </c>
+      <c r="M59" s="20"/>
       <c r="N59" s="29">
         <v>100683</v>
       </c>
@@ -17444,7 +16992,7 @@
     </row>
     <row r="60" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A60" s="10">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(D60,"&lt;&gt;"&amp;"")+COUNTIF(BM60,"&lt;&gt;"&amp;"")</f>
         <v>2</v>
       </c>
       <c r="B60" s="17">
@@ -17477,6 +17025,7 @@
       <c r="L60" s="41" t="s">
         <v>923</v>
       </c>
+      <c r="M60" s="20"/>
       <c r="N60" s="29">
         <v>81272</v>
       </c>
@@ -17619,7 +17168,7 @@
     </row>
     <row r="61" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A61" s="10">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(D61,"&lt;&gt;"&amp;"")+COUNTIF(BM61,"&lt;&gt;"&amp;"")</f>
         <v>2</v>
       </c>
       <c r="B61" s="17">
@@ -17652,6 +17201,7 @@
       <c r="L61" s="41" t="s">
         <v>924</v>
       </c>
+      <c r="M61" s="20"/>
       <c r="N61" s="29">
         <v>92064</v>
       </c>
@@ -17794,7 +17344,7 @@
     </row>
     <row r="62" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A62" s="10">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(D62,"&lt;&gt;"&amp;"")+COUNTIF(BM62,"&lt;&gt;"&amp;"")</f>
         <v>2</v>
       </c>
       <c r="B62" s="17">
@@ -17827,6 +17377,7 @@
       <c r="L62" s="41" t="s">
         <v>925</v>
       </c>
+      <c r="M62" s="20"/>
       <c r="N62" s="29">
         <v>85470</v>
       </c>
@@ -17969,7 +17520,7 @@
     </row>
     <row r="63" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A63" s="10">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(D63,"&lt;&gt;"&amp;"")+COUNTIF(BM63,"&lt;&gt;"&amp;"")</f>
         <v>2</v>
       </c>
       <c r="B63" s="17">
@@ -18002,6 +17553,7 @@
       <c r="L63" s="41" t="s">
         <v>926</v>
       </c>
+      <c r="M63" s="20"/>
       <c r="N63" s="29">
         <v>87284</v>
       </c>
@@ -18144,7 +17696,7 @@
     </row>
     <row r="64" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A64" s="10">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(D64,"&lt;&gt;"&amp;"")+COUNTIF(BM64,"&lt;&gt;"&amp;"")</f>
         <v>2</v>
       </c>
       <c r="B64" s="17">
@@ -18177,6 +17729,7 @@
       <c r="L64" s="41" t="s">
         <v>927</v>
       </c>
+      <c r="M64" s="20"/>
       <c r="N64" s="29">
         <v>101102</v>
       </c>
@@ -18319,7 +17872,7 @@
     </row>
     <row r="65" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A65" s="10">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(D65,"&lt;&gt;"&amp;"")+COUNTIF(BM65,"&lt;&gt;"&amp;"")</f>
         <v>2</v>
       </c>
       <c r="B65" s="17">
@@ -18352,6 +17905,7 @@
       <c r="L65" s="41" t="s">
         <v>928</v>
       </c>
+      <c r="M65" s="20"/>
       <c r="N65" s="29">
         <v>89435</v>
       </c>
@@ -18493,7 +18047,7 @@
     </row>
     <row r="66" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A66" s="10">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(D66,"&lt;&gt;"&amp;"")+COUNTIF(BM66,"&lt;&gt;"&amp;"")</f>
         <v>2</v>
       </c>
       <c r="B66" s="17">
@@ -18526,6 +18080,7 @@
       <c r="L66" s="41" t="s">
         <v>929</v>
       </c>
+      <c r="M66" s="20"/>
       <c r="N66" s="29">
         <v>72554</v>
       </c>
@@ -18667,7 +18222,7 @@
     </row>
     <row r="67" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A67" s="10">
-        <f t="shared" ref="A67:A130" si="1">COUNTIF(D67,"&lt;&gt;"&amp;"")+COUNTIF(BM67,"&lt;&gt;"&amp;"")</f>
+        <f>COUNTIF(D67,"&lt;&gt;"&amp;"")+COUNTIF(BM67,"&lt;&gt;"&amp;"")</f>
         <v>2</v>
       </c>
       <c r="B67" s="17">
@@ -18700,6 +18255,7 @@
       <c r="L67" s="41" t="s">
         <v>930</v>
       </c>
+      <c r="M67" s="20"/>
       <c r="N67" s="29">
         <v>103496</v>
       </c>
@@ -18841,7 +18397,7 @@
     </row>
     <row r="68" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A68" s="10">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(D68,"&lt;&gt;"&amp;"")+COUNTIF(BM68,"&lt;&gt;"&amp;"")</f>
         <v>2</v>
       </c>
       <c r="B68" s="17">
@@ -18874,6 +18430,7 @@
       <c r="L68" s="41" t="s">
         <v>931</v>
       </c>
+      <c r="M68" s="20"/>
       <c r="N68" s="29">
         <v>99824</v>
       </c>
@@ -19015,7 +18572,7 @@
     </row>
     <row r="69" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A69" s="10">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(D69,"&lt;&gt;"&amp;"")+COUNTIF(BM69,"&lt;&gt;"&amp;"")</f>
         <v>2</v>
       </c>
       <c r="B69" s="17">
@@ -19048,6 +18605,7 @@
       <c r="L69" s="41" t="s">
         <v>932</v>
       </c>
+      <c r="M69" s="20"/>
       <c r="N69" s="29">
         <v>69758</v>
       </c>
@@ -19189,14 +18747,14 @@
     </row>
     <row r="70" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A70" s="10">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(D70,"&lt;&gt;"&amp;"")+COUNTIF(BM70,"&lt;&gt;"&amp;"")</f>
         <v>2</v>
       </c>
       <c r="B70" s="17">
         <v>68</v>
       </c>
       <c r="C70" s="20" t="s">
-        <v>69</v>
+        <v>1503</v>
       </c>
       <c r="D70" s="38" t="s">
         <v>159</v>
@@ -19222,6 +18780,7 @@
       <c r="L70" s="41" t="s">
         <v>933</v>
       </c>
+      <c r="M70" s="20"/>
       <c r="N70" s="29">
         <v>127</v>
       </c>
@@ -19363,7 +18922,7 @@
     </row>
     <row r="71" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A71" s="10">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(D71,"&lt;&gt;"&amp;"")+COUNTIF(BM71,"&lt;&gt;"&amp;"")</f>
         <v>2</v>
       </c>
       <c r="B71" s="17">
@@ -19396,6 +18955,7 @@
       <c r="L71" s="41" t="s">
         <v>934</v>
       </c>
+      <c r="M71" s="20"/>
       <c r="N71" s="29">
         <v>91255</v>
       </c>
@@ -19537,7 +19097,7 @@
     </row>
     <row r="72" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A72" s="10">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(D72,"&lt;&gt;"&amp;"")+COUNTIF(BM72,"&lt;&gt;"&amp;"")</f>
         <v>2</v>
       </c>
       <c r="B72" s="17">
@@ -19570,6 +19130,7 @@
       <c r="L72" s="41" t="s">
         <v>935</v>
       </c>
+      <c r="M72" s="20"/>
       <c r="N72" s="29">
         <v>90308</v>
       </c>
@@ -19711,7 +19272,7 @@
     </row>
     <row r="73" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A73" s="10">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(D73,"&lt;&gt;"&amp;"")+COUNTIF(BM73,"&lt;&gt;"&amp;"")</f>
         <v>2</v>
       </c>
       <c r="B73" s="17">
@@ -19744,6 +19305,7 @@
       <c r="L73" s="41" t="s">
         <v>936</v>
       </c>
+      <c r="M73" s="20"/>
       <c r="N73" s="29">
         <v>1163</v>
       </c>
@@ -19885,7 +19447,7 @@
     </row>
     <row r="74" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A74" s="10">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(D74,"&lt;&gt;"&amp;"")+COUNTIF(BM74,"&lt;&gt;"&amp;"")</f>
         <v>2</v>
       </c>
       <c r="B74" s="17">
@@ -19918,6 +19480,7 @@
       <c r="L74" s="41" t="s">
         <v>937</v>
       </c>
+      <c r="M74" s="20"/>
       <c r="N74" s="29">
         <v>96177</v>
       </c>
@@ -20059,7 +19622,7 @@
     </row>
     <row r="75" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A75" s="10">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(D75,"&lt;&gt;"&amp;"")+COUNTIF(BM75,"&lt;&gt;"&amp;"")</f>
         <v>2</v>
       </c>
       <c r="B75" s="17">
@@ -20092,6 +19655,7 @@
       <c r="L75" s="41" t="s">
         <v>938</v>
       </c>
+      <c r="M75" s="20"/>
       <c r="N75" s="29">
         <v>101992</v>
       </c>
@@ -20233,7 +19797,7 @@
     </row>
     <row r="76" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A76" s="10">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(D76,"&lt;&gt;"&amp;"")+COUNTIF(BM76,"&lt;&gt;"&amp;"")</f>
         <v>2</v>
       </c>
       <c r="B76" s="17">
@@ -20266,6 +19830,7 @@
       <c r="L76" s="41" t="s">
         <v>939</v>
       </c>
+      <c r="M76" s="20"/>
       <c r="N76" s="29">
         <v>86279</v>
       </c>
@@ -20407,7 +19972,7 @@
     </row>
     <row r="77" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A77" s="10">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(D77,"&lt;&gt;"&amp;"")+COUNTIF(BM77,"&lt;&gt;"&amp;"")</f>
         <v>2</v>
       </c>
       <c r="B77" s="17">
@@ -20440,6 +20005,7 @@
       <c r="L77" s="41" t="s">
         <v>940</v>
       </c>
+      <c r="M77" s="20"/>
       <c r="N77" s="29">
         <v>116047</v>
       </c>
@@ -20581,7 +20147,7 @@
     </row>
     <row r="78" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A78" s="10">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(D78,"&lt;&gt;"&amp;"")+COUNTIF(BM78,"&lt;&gt;"&amp;"")</f>
         <v>2</v>
       </c>
       <c r="B78" s="17">
@@ -20614,6 +20180,7 @@
       <c r="L78" s="41" t="s">
         <v>941</v>
       </c>
+      <c r="M78" s="20"/>
       <c r="N78" s="29">
         <v>98770</v>
       </c>
@@ -20755,7 +20322,7 @@
     </row>
     <row r="79" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A79" s="10">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(D79,"&lt;&gt;"&amp;"")+COUNTIF(BM79,"&lt;&gt;"&amp;"")</f>
         <v>2</v>
       </c>
       <c r="B79" s="17">
@@ -20788,6 +20355,7 @@
       <c r="L79" s="41" t="s">
         <v>942</v>
       </c>
+      <c r="M79" s="20"/>
       <c r="N79" s="29">
         <v>33917</v>
       </c>
@@ -20929,7 +20497,7 @@
     </row>
     <row r="80" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A80" s="10">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(D80,"&lt;&gt;"&amp;"")+COUNTIF(BM80,"&lt;&gt;"&amp;"")</f>
         <v>2</v>
       </c>
       <c r="B80" s="17">
@@ -20962,6 +20530,7 @@
       <c r="L80" s="41" t="s">
         <v>943</v>
       </c>
+      <c r="M80" s="20"/>
       <c r="N80" s="29">
         <v>140887</v>
       </c>
@@ -21103,7 +20672,7 @@
     </row>
     <row r="81" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A81" s="10">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(D81,"&lt;&gt;"&amp;"")+COUNTIF(BM81,"&lt;&gt;"&amp;"")</f>
         <v>2</v>
       </c>
       <c r="B81" s="17">
@@ -21136,6 +20705,7 @@
       <c r="L81" s="41" t="s">
         <v>944</v>
       </c>
+      <c r="M81" s="20"/>
       <c r="N81" s="29">
         <v>89766</v>
       </c>
@@ -21277,7 +20847,7 @@
     </row>
     <row r="82" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A82" s="10">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(D82,"&lt;&gt;"&amp;"")+COUNTIF(BM82,"&lt;&gt;"&amp;"")</f>
         <v>2</v>
       </c>
       <c r="B82" s="17">
@@ -21310,6 +20880,7 @@
       <c r="L82" s="41" t="s">
         <v>945</v>
       </c>
+      <c r="M82" s="20"/>
       <c r="N82" s="29">
         <v>83597</v>
       </c>
@@ -21451,7 +21022,7 @@
     </row>
     <row r="83" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A83" s="10">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(D83,"&lt;&gt;"&amp;"")+COUNTIF(BM83,"&lt;&gt;"&amp;"")</f>
         <v>2</v>
       </c>
       <c r="B83" s="17">
@@ -21484,6 +21055,7 @@
       <c r="L83" s="41" t="s">
         <v>946</v>
       </c>
+      <c r="M83" s="20"/>
       <c r="N83" s="29">
         <v>131631</v>
       </c>
@@ -21625,7 +21197,7 @@
     </row>
     <row r="84" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A84" s="10">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(D84,"&lt;&gt;"&amp;"")+COUNTIF(BM84,"&lt;&gt;"&amp;"")</f>
         <v>2</v>
       </c>
       <c r="B84" s="17">
@@ -21658,6 +21230,7 @@
       <c r="L84" s="41" t="s">
         <v>947</v>
       </c>
+      <c r="M84" s="20"/>
       <c r="N84" s="29">
         <v>87920</v>
       </c>
@@ -21799,7 +21372,7 @@
     </row>
     <row r="85" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A85" s="10">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(D85,"&lt;&gt;"&amp;"")+COUNTIF(BM85,"&lt;&gt;"&amp;"")</f>
         <v>2</v>
       </c>
       <c r="B85" s="17">
@@ -21832,6 +21405,7 @@
       <c r="L85" s="41" t="s">
         <v>948</v>
       </c>
+      <c r="M85" s="20"/>
       <c r="N85" s="29">
         <v>75333</v>
       </c>
@@ -21973,7 +21547,7 @@
     </row>
     <row r="86" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A86" s="10">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(D86,"&lt;&gt;"&amp;"")+COUNTIF(BM86,"&lt;&gt;"&amp;"")</f>
         <v>2</v>
       </c>
       <c r="B86" s="17">
@@ -22006,6 +21580,7 @@
       <c r="L86" s="41" t="s">
         <v>949</v>
       </c>
+      <c r="M86" s="20"/>
       <c r="N86" s="29">
         <v>70736</v>
       </c>
@@ -22147,7 +21722,7 @@
     </row>
     <row r="87" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A87" s="10">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(D87,"&lt;&gt;"&amp;"")+COUNTIF(BM87,"&lt;&gt;"&amp;"")</f>
         <v>2</v>
       </c>
       <c r="B87" s="17">
@@ -22180,6 +21755,7 @@
       <c r="L87" s="41" t="s">
         <v>950</v>
       </c>
+      <c r="M87" s="20"/>
       <c r="N87" s="29">
         <v>70576</v>
       </c>
@@ -22321,7 +21897,7 @@
     </row>
     <row r="88" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A88" s="10">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(D88,"&lt;&gt;"&amp;"")+COUNTIF(BM88,"&lt;&gt;"&amp;"")</f>
         <v>2</v>
       </c>
       <c r="B88" s="17">
@@ -22354,6 +21930,7 @@
       <c r="L88" s="41" t="s">
         <v>951</v>
       </c>
+      <c r="M88" s="20"/>
       <c r="N88" s="29">
         <v>81992</v>
       </c>
@@ -22495,7 +22072,7 @@
     </row>
     <row r="89" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A89" s="10">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(D89,"&lt;&gt;"&amp;"")+COUNTIF(BM89,"&lt;&gt;"&amp;"")</f>
         <v>2</v>
       </c>
       <c r="B89" s="17">
@@ -22528,6 +22105,7 @@
       <c r="L89" s="41" t="s">
         <v>952</v>
       </c>
+      <c r="M89" s="20"/>
       <c r="N89" s="29">
         <v>65050</v>
       </c>
@@ -22669,7 +22247,7 @@
     </row>
     <row r="90" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A90" s="10">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(D90,"&lt;&gt;"&amp;"")+COUNTIF(BM90,"&lt;&gt;"&amp;"")</f>
         <v>2</v>
       </c>
       <c r="B90" s="17">
@@ -22702,6 +22280,7 @@
       <c r="L90" s="41" t="s">
         <v>953</v>
       </c>
+      <c r="M90" s="20"/>
       <c r="N90" s="29">
         <v>71765</v>
       </c>
@@ -22843,14 +22422,14 @@
     </row>
     <row r="91" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A91" s="10">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(D91,"&lt;&gt;"&amp;"")+COUNTIF(BM91,"&lt;&gt;"&amp;"")</f>
         <v>2</v>
       </c>
       <c r="B91" s="17">
         <v>89</v>
       </c>
       <c r="C91" s="20" t="s">
-        <v>69</v>
+        <v>1503</v>
       </c>
       <c r="D91" s="38" t="s">
         <v>180</v>
@@ -22876,6 +22455,7 @@
       <c r="L91" s="41" t="s">
         <v>954</v>
       </c>
+      <c r="M91" s="20"/>
       <c r="N91" s="29">
         <v>74</v>
       </c>
@@ -23017,7 +22597,7 @@
     </row>
     <row r="92" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A92" s="10">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(D92,"&lt;&gt;"&amp;"")+COUNTIF(BM92,"&lt;&gt;"&amp;"")</f>
         <v>2</v>
       </c>
       <c r="B92" s="17">
@@ -23050,6 +22630,7 @@
       <c r="L92" s="41" t="s">
         <v>955</v>
       </c>
+      <c r="M92" s="20"/>
       <c r="N92" s="29">
         <v>72724</v>
       </c>
@@ -23191,7 +22772,7 @@
     </row>
     <row r="93" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A93" s="10">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(D93,"&lt;&gt;"&amp;"")+COUNTIF(BM93,"&lt;&gt;"&amp;"")</f>
         <v>2</v>
       </c>
       <c r="B93" s="17">
@@ -23224,6 +22805,7 @@
       <c r="L93" s="41" t="s">
         <v>956</v>
       </c>
+      <c r="M93" s="20"/>
       <c r="N93" s="29">
         <v>67993</v>
       </c>
@@ -23365,7 +22947,7 @@
     </row>
     <row r="94" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A94" s="10">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(D94,"&lt;&gt;"&amp;"")+COUNTIF(BM94,"&lt;&gt;"&amp;"")</f>
         <v>2</v>
       </c>
       <c r="B94" s="17">
@@ -23398,6 +22980,7 @@
       <c r="L94" s="41" t="s">
         <v>957</v>
       </c>
+      <c r="M94" s="20"/>
       <c r="N94" s="29">
         <v>87446</v>
       </c>
@@ -23539,7 +23122,7 @@
     </row>
     <row r="95" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A95" s="10">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(D95,"&lt;&gt;"&amp;"")+COUNTIF(BM95,"&lt;&gt;"&amp;"")</f>
         <v>2</v>
       </c>
       <c r="B95" s="17">
@@ -23572,6 +23155,7 @@
       <c r="L95" s="41" t="s">
         <v>958</v>
       </c>
+      <c r="M95" s="20"/>
       <c r="N95" s="29">
         <v>89395</v>
       </c>
@@ -23713,7 +23297,7 @@
     </row>
     <row r="96" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A96" s="10">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(D96,"&lt;&gt;"&amp;"")+COUNTIF(BM96,"&lt;&gt;"&amp;"")</f>
         <v>2</v>
       </c>
       <c r="B96" s="17">
@@ -23746,6 +23330,7 @@
       <c r="L96" s="41" t="s">
         <v>959</v>
       </c>
+      <c r="M96" s="20"/>
       <c r="N96" s="29">
         <v>90295</v>
       </c>
@@ -23887,7 +23472,7 @@
     </row>
     <row r="97" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A97" s="10">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(D97,"&lt;&gt;"&amp;"")+COUNTIF(BM97,"&lt;&gt;"&amp;"")</f>
         <v>2</v>
       </c>
       <c r="B97" s="17">
@@ -23920,6 +23505,7 @@
       <c r="L97" s="41" t="s">
         <v>960</v>
       </c>
+      <c r="M97" s="20"/>
       <c r="N97" s="29">
         <v>85867</v>
       </c>
@@ -24061,7 +23647,7 @@
     </row>
     <row r="98" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A98" s="10">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(D98,"&lt;&gt;"&amp;"")+COUNTIF(BM98,"&lt;&gt;"&amp;"")</f>
         <v>2</v>
       </c>
       <c r="B98" s="17">
@@ -24094,6 +23680,7 @@
       <c r="L98" s="41" t="s">
         <v>961</v>
       </c>
+      <c r="M98" s="20"/>
       <c r="N98" s="29">
         <v>74138</v>
       </c>
@@ -24235,7 +23822,7 @@
     </row>
     <row r="99" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A99" s="10">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(D99,"&lt;&gt;"&amp;"")+COUNTIF(BM99,"&lt;&gt;"&amp;"")</f>
         <v>2</v>
       </c>
       <c r="B99" s="17">
@@ -24268,6 +23855,7 @@
       <c r="L99" s="41" t="s">
         <v>962</v>
       </c>
+      <c r="M99" s="20"/>
       <c r="N99" s="29">
         <v>76262</v>
       </c>
@@ -24409,7 +23997,7 @@
     </row>
     <row r="100" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A100" s="10">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(D100,"&lt;&gt;"&amp;"")+COUNTIF(BM100,"&lt;&gt;"&amp;"")</f>
         <v>2</v>
       </c>
       <c r="B100" s="17">
@@ -24442,6 +24030,7 @@
       <c r="L100" s="41" t="s">
         <v>963</v>
       </c>
+      <c r="M100" s="20"/>
       <c r="N100" s="29">
         <v>73734</v>
       </c>
@@ -24583,7 +24172,7 @@
     </row>
     <row r="101" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A101" s="10">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(D101,"&lt;&gt;"&amp;"")+COUNTIF(BM101,"&lt;&gt;"&amp;"")</f>
         <v>2</v>
       </c>
       <c r="B101" s="17">
@@ -24616,6 +24205,7 @@
       <c r="L101" s="41" t="s">
         <v>964</v>
       </c>
+      <c r="M101" s="20"/>
       <c r="N101" s="29">
         <v>67676</v>
       </c>
@@ -24757,7 +24347,7 @@
     </row>
     <row r="102" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A102" s="10">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(D102,"&lt;&gt;"&amp;"")+COUNTIF(BM102,"&lt;&gt;"&amp;"")</f>
         <v>2</v>
       </c>
       <c r="B102" s="17">
@@ -24790,6 +24380,7 @@
       <c r="L102" s="41" t="s">
         <v>965</v>
       </c>
+      <c r="M102" s="20"/>
       <c r="N102" s="29">
         <v>87592</v>
       </c>
@@ -24931,7 +24522,7 @@
     </row>
     <row r="103" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A103" s="10">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(D103,"&lt;&gt;"&amp;"")+COUNTIF(BM103,"&lt;&gt;"&amp;"")</f>
         <v>2</v>
       </c>
       <c r="B103" s="17">
@@ -24964,6 +24555,7 @@
       <c r="L103" s="41" t="s">
         <v>966</v>
       </c>
+      <c r="M103" s="20"/>
       <c r="N103" s="29">
         <v>106424</v>
       </c>
@@ -25105,7 +24697,7 @@
     </row>
     <row r="104" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A104" s="10">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(D104,"&lt;&gt;"&amp;"")+COUNTIF(BM104,"&lt;&gt;"&amp;"")</f>
         <v>2</v>
       </c>
       <c r="B104" s="17">
@@ -25138,6 +24730,7 @@
       <c r="L104" s="41" t="s">
         <v>967</v>
       </c>
+      <c r="M104" s="20"/>
       <c r="N104" s="29">
         <v>74197</v>
       </c>
@@ -25279,7 +24872,7 @@
     </row>
     <row r="105" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A105" s="10">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(D105,"&lt;&gt;"&amp;"")+COUNTIF(BM105,"&lt;&gt;"&amp;"")</f>
         <v>2</v>
       </c>
       <c r="B105" s="17">
@@ -25312,6 +24905,7 @@
       <c r="L105" s="41" t="s">
         <v>968</v>
       </c>
+      <c r="M105" s="20"/>
       <c r="N105" s="29">
         <v>82103</v>
       </c>
@@ -25453,7 +25047,7 @@
     </row>
     <row r="106" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A106" s="10">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(D106,"&lt;&gt;"&amp;"")+COUNTIF(BM106,"&lt;&gt;"&amp;"")</f>
         <v>2</v>
       </c>
       <c r="B106" s="17">
@@ -25486,6 +25080,7 @@
       <c r="L106" s="41" t="s">
         <v>969</v>
       </c>
+      <c r="M106" s="20"/>
       <c r="N106" s="29">
         <v>80205</v>
       </c>
@@ -25627,7 +25222,7 @@
     </row>
     <row r="107" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A107" s="10">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(D107,"&lt;&gt;"&amp;"")+COUNTIF(BM107,"&lt;&gt;"&amp;"")</f>
         <v>2</v>
       </c>
       <c r="B107" s="17">
@@ -25660,6 +25255,7 @@
       <c r="L107" s="41" t="s">
         <v>970</v>
       </c>
+      <c r="M107" s="20"/>
       <c r="N107" s="29">
         <v>76927</v>
       </c>
@@ -25801,7 +25397,7 @@
     </row>
     <row r="108" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A108" s="10">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(D108,"&lt;&gt;"&amp;"")+COUNTIF(BM108,"&lt;&gt;"&amp;"")</f>
         <v>2</v>
       </c>
       <c r="B108" s="17">
@@ -25834,6 +25430,7 @@
       <c r="L108" s="41" t="s">
         <v>971</v>
       </c>
+      <c r="M108" s="20"/>
       <c r="N108" s="29">
         <v>64139</v>
       </c>
@@ -25975,7 +25572,7 @@
     </row>
     <row r="109" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A109" s="10">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(D109,"&lt;&gt;"&amp;"")+COUNTIF(BM109,"&lt;&gt;"&amp;"")</f>
         <v>2</v>
       </c>
       <c r="B109" s="17">
@@ -26008,6 +25605,7 @@
       <c r="L109" s="41" t="s">
         <v>972</v>
       </c>
+      <c r="M109" s="20"/>
       <c r="N109" s="29">
         <v>73957</v>
       </c>
@@ -26149,7 +25747,7 @@
     </row>
     <row r="110" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A110" s="10">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(D110,"&lt;&gt;"&amp;"")+COUNTIF(BM110,"&lt;&gt;"&amp;"")</f>
         <v>2</v>
       </c>
       <c r="B110" s="17">
@@ -26182,6 +25780,7 @@
       <c r="L110" s="41" t="s">
         <v>973</v>
       </c>
+      <c r="M110" s="20"/>
       <c r="N110" s="29">
         <v>81582</v>
       </c>
@@ -26323,7 +25922,7 @@
     </row>
     <row r="111" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A111" s="10">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(D111,"&lt;&gt;"&amp;"")+COUNTIF(BM111,"&lt;&gt;"&amp;"")</f>
         <v>2</v>
       </c>
       <c r="B111" s="17">
@@ -26356,6 +25955,7 @@
       <c r="L111" s="41" t="s">
         <v>974</v>
       </c>
+      <c r="M111" s="20"/>
       <c r="N111" s="29">
         <v>80503</v>
       </c>
@@ -26497,7 +26097,7 @@
     </row>
     <row r="112" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A112" s="10">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(D112,"&lt;&gt;"&amp;"")+COUNTIF(BM112,"&lt;&gt;"&amp;"")</f>
         <v>2</v>
       </c>
       <c r="B112" s="17">
@@ -26530,6 +26130,7 @@
       <c r="L112" s="41" t="s">
         <v>975</v>
       </c>
+      <c r="M112" s="20"/>
       <c r="N112" s="29">
         <v>81001</v>
       </c>
@@ -26671,7 +26272,7 @@
     </row>
     <row r="113" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A113" s="10">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(D113,"&lt;&gt;"&amp;"")+COUNTIF(BM113,"&lt;&gt;"&amp;"")</f>
         <v>2</v>
       </c>
       <c r="B113" s="17">
@@ -26704,6 +26305,7 @@
       <c r="L113" s="41" t="s">
         <v>976</v>
       </c>
+      <c r="M113" s="20"/>
       <c r="N113" s="29">
         <v>86899</v>
       </c>
@@ -26845,7 +26447,7 @@
     </row>
     <row r="114" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A114" s="10">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(D114,"&lt;&gt;"&amp;"")+COUNTIF(BM114,"&lt;&gt;"&amp;"")</f>
         <v>2</v>
       </c>
       <c r="B114" s="17">
@@ -26878,6 +26480,7 @@
       <c r="L114" s="41" t="s">
         <v>977</v>
       </c>
+      <c r="M114" s="20"/>
       <c r="N114" s="29">
         <v>80167</v>
       </c>
@@ -27019,7 +26622,7 @@
     </row>
     <row r="115" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A115" s="10">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(D115,"&lt;&gt;"&amp;"")+COUNTIF(BM115,"&lt;&gt;"&amp;"")</f>
         <v>2</v>
       </c>
       <c r="B115" s="17">
@@ -27052,6 +26655,7 @@
       <c r="L115" s="41" t="s">
         <v>978</v>
       </c>
+      <c r="M115" s="20"/>
       <c r="N115" s="29">
         <v>3067</v>
       </c>
@@ -27193,7 +26797,7 @@
     </row>
     <row r="116" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A116" s="10">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(D116,"&lt;&gt;"&amp;"")+COUNTIF(BM116,"&lt;&gt;"&amp;"")</f>
         <v>2</v>
       </c>
       <c r="B116" s="17">
@@ -27226,6 +26830,7 @@
       <c r="L116" s="41" t="s">
         <v>979</v>
       </c>
+      <c r="M116" s="20"/>
       <c r="N116" s="29">
         <v>94751</v>
       </c>
@@ -27367,7 +26972,7 @@
     </row>
     <row r="117" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A117" s="10">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(D117,"&lt;&gt;"&amp;"")+COUNTIF(BM117,"&lt;&gt;"&amp;"")</f>
         <v>2</v>
       </c>
       <c r="B117" s="17">
@@ -27400,6 +27005,7 @@
       <c r="L117" s="41" t="s">
         <v>980</v>
       </c>
+      <c r="M117" s="20"/>
       <c r="N117" s="29">
         <v>72569</v>
       </c>
@@ -27541,7 +27147,7 @@
     </row>
     <row r="118" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A118" s="10">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(D118,"&lt;&gt;"&amp;"")+COUNTIF(BM118,"&lt;&gt;"&amp;"")</f>
         <v>2</v>
       </c>
       <c r="B118" s="17">
@@ -27574,6 +27180,7 @@
       <c r="L118" s="41" t="s">
         <v>981</v>
       </c>
+      <c r="M118" s="20"/>
       <c r="N118" s="29">
         <v>74576</v>
       </c>
@@ -27715,7 +27322,7 @@
     </row>
     <row r="119" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A119" s="10">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(D119,"&lt;&gt;"&amp;"")+COUNTIF(BM119,"&lt;&gt;"&amp;"")</f>
         <v>2</v>
       </c>
       <c r="B119" s="17">
@@ -27748,6 +27355,7 @@
       <c r="L119" s="41" t="s">
         <v>982</v>
       </c>
+      <c r="M119" s="20"/>
       <c r="N119" s="29">
         <v>86926</v>
       </c>
@@ -27889,7 +27497,7 @@
     </row>
     <row r="120" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A120" s="10">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(D120,"&lt;&gt;"&amp;"")+COUNTIF(BM120,"&lt;&gt;"&amp;"")</f>
         <v>2</v>
       </c>
       <c r="B120" s="17">
@@ -27922,6 +27530,7 @@
       <c r="L120" s="41" t="s">
         <v>983</v>
       </c>
+      <c r="M120" s="20"/>
       <c r="N120" s="29">
         <v>75742</v>
       </c>
@@ -28063,7 +27672,7 @@
     </row>
     <row r="121" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A121" s="10">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(D121,"&lt;&gt;"&amp;"")+COUNTIF(BM121,"&lt;&gt;"&amp;"")</f>
         <v>2</v>
       </c>
       <c r="B121" s="17">
@@ -28096,6 +27705,7 @@
       <c r="L121" s="41" t="s">
         <v>984</v>
       </c>
+      <c r="M121" s="20"/>
       <c r="N121" s="29">
         <v>87054</v>
       </c>
@@ -28237,7 +27847,7 @@
     </row>
     <row r="122" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A122" s="10">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(D122,"&lt;&gt;"&amp;"")+COUNTIF(BM122,"&lt;&gt;"&amp;"")</f>
         <v>2</v>
       </c>
       <c r="B122" s="17">
@@ -28270,6 +27880,7 @@
       <c r="L122" s="41" t="s">
         <v>985</v>
       </c>
+      <c r="M122" s="20"/>
       <c r="N122" s="29">
         <v>72916</v>
       </c>
@@ -28411,7 +28022,7 @@
     </row>
     <row r="123" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A123" s="10">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(D123,"&lt;&gt;"&amp;"")+COUNTIF(BM123,"&lt;&gt;"&amp;"")</f>
         <v>2</v>
       </c>
       <c r="B123" s="17">
@@ -28444,6 +28055,7 @@
       <c r="L123" s="41" t="s">
         <v>986</v>
       </c>
+      <c r="M123" s="20"/>
       <c r="N123" s="29">
         <v>77598</v>
       </c>
@@ -28585,14 +28197,14 @@
     </row>
     <row r="124" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A124" s="10">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(D124,"&lt;&gt;"&amp;"")+COUNTIF(BM124,"&lt;&gt;"&amp;"")</f>
         <v>2</v>
       </c>
       <c r="B124" s="17">
         <v>122</v>
       </c>
       <c r="C124" s="20" t="s">
-        <v>69</v>
+        <v>1503</v>
       </c>
       <c r="D124" s="20" t="s">
         <v>213</v>
@@ -28618,6 +28230,7 @@
       <c r="L124" s="41" t="s">
         <v>987</v>
       </c>
+      <c r="M124" s="20"/>
       <c r="N124" s="29">
         <v>151</v>
       </c>
@@ -28759,7 +28372,7 @@
     </row>
     <row r="125" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A125" s="10">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(D125,"&lt;&gt;"&amp;"")+COUNTIF(BM125,"&lt;&gt;"&amp;"")</f>
         <v>2</v>
       </c>
       <c r="B125" s="17">
@@ -28792,6 +28405,7 @@
       <c r="L125" s="41" t="s">
         <v>988</v>
       </c>
+      <c r="M125" s="20"/>
       <c r="N125" s="29">
         <v>1803</v>
       </c>
@@ -28933,7 +28547,7 @@
     </row>
     <row r="126" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A126" s="10">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(D126,"&lt;&gt;"&amp;"")+COUNTIF(BM126,"&lt;&gt;"&amp;"")</f>
         <v>2</v>
       </c>
       <c r="B126" s="17">
@@ -28966,6 +28580,7 @@
       <c r="L126" s="41" t="s">
         <v>989</v>
       </c>
+      <c r="M126" s="20"/>
       <c r="N126" s="29">
         <v>86140</v>
       </c>
@@ -29107,7 +28722,7 @@
     </row>
     <row r="127" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A127" s="10">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(D127,"&lt;&gt;"&amp;"")+COUNTIF(BM127,"&lt;&gt;"&amp;"")</f>
         <v>2</v>
       </c>
       <c r="B127" s="17">
@@ -29140,6 +28755,7 @@
       <c r="L127" s="41" t="s">
         <v>990</v>
       </c>
+      <c r="M127" s="20"/>
       <c r="N127" s="29">
         <v>4483</v>
       </c>
@@ -29281,7 +28897,7 @@
     </row>
     <row r="128" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A128" s="10">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(D128,"&lt;&gt;"&amp;"")+COUNTIF(BM128,"&lt;&gt;"&amp;"")</f>
         <v>2</v>
       </c>
       <c r="B128" s="17">
@@ -29314,6 +28930,7 @@
       <c r="L128" s="41" t="s">
         <v>991</v>
       </c>
+      <c r="M128" s="20"/>
       <c r="N128" s="29">
         <v>1907</v>
       </c>
@@ -29455,7 +29072,7 @@
     </row>
     <row r="129" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A129" s="10">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(D129,"&lt;&gt;"&amp;"")+COUNTIF(BM129,"&lt;&gt;"&amp;"")</f>
         <v>2</v>
       </c>
       <c r="B129" s="17">
@@ -29488,6 +29105,7 @@
       <c r="L129" s="41" t="s">
         <v>992</v>
       </c>
+      <c r="M129" s="20"/>
       <c r="N129" s="29">
         <v>4643</v>
       </c>
@@ -29629,14 +29247,14 @@
     </row>
     <row r="130" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A130" s="10">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(D130,"&lt;&gt;"&amp;"")+COUNTIF(BM130,"&lt;&gt;"&amp;"")</f>
         <v>2</v>
       </c>
       <c r="B130" s="17">
         <v>128</v>
       </c>
       <c r="C130" s="20" t="s">
-        <v>69</v>
+        <v>1503</v>
       </c>
       <c r="D130" s="20" t="s">
         <v>219</v>
@@ -29662,6 +29280,7 @@
       <c r="L130" s="41" t="s">
         <v>993</v>
       </c>
+      <c r="M130" s="20"/>
       <c r="N130" s="29">
         <v>166</v>
       </c>
@@ -29803,7 +29422,7 @@
     </row>
     <row r="131" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A131" s="10">
-        <f t="shared" ref="A131:A194" si="2">COUNTIF(D131,"&lt;&gt;"&amp;"")+COUNTIF(BM131,"&lt;&gt;"&amp;"")</f>
+        <f>COUNTIF(D131,"&lt;&gt;"&amp;"")+COUNTIF(BM131,"&lt;&gt;"&amp;"")</f>
         <v>2</v>
       </c>
       <c r="B131" s="17">
@@ -29836,6 +29455,7 @@
       <c r="L131" s="41" t="s">
         <v>994</v>
       </c>
+      <c r="M131" s="20"/>
       <c r="N131" s="29">
         <v>62300</v>
       </c>
@@ -29977,7 +29597,7 @@
     </row>
     <row r="132" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A132" s="10">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(D132,"&lt;&gt;"&amp;"")+COUNTIF(BM132,"&lt;&gt;"&amp;"")</f>
         <v>2</v>
       </c>
       <c r="B132" s="17">
@@ -30010,6 +29630,7 @@
       <c r="L132" s="41" t="s">
         <v>995</v>
       </c>
+      <c r="M132" s="20"/>
       <c r="N132" s="29">
         <v>56157</v>
       </c>
@@ -30151,7 +29772,7 @@
     </row>
     <row r="133" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A133" s="10">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(D133,"&lt;&gt;"&amp;"")+COUNTIF(BM133,"&lt;&gt;"&amp;"")</f>
         <v>2</v>
       </c>
       <c r="B133" s="17">
@@ -30184,6 +29805,7 @@
       <c r="L133" s="41" t="s">
         <v>996</v>
       </c>
+      <c r="M133" s="20"/>
       <c r="N133" s="29">
         <v>85894</v>
       </c>
@@ -30325,7 +29947,7 @@
     </row>
     <row r="134" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A134" s="10">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(D134,"&lt;&gt;"&amp;"")+COUNTIF(BM134,"&lt;&gt;"&amp;"")</f>
         <v>2</v>
       </c>
       <c r="B134" s="17">
@@ -30358,6 +29980,7 @@
       <c r="L134" s="41" t="s">
         <v>997</v>
       </c>
+      <c r="M134" s="20"/>
       <c r="N134" s="29">
         <v>70832</v>
       </c>
@@ -30499,7 +30122,7 @@
     </row>
     <row r="135" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A135" s="10">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(D135,"&lt;&gt;"&amp;"")+COUNTIF(BM135,"&lt;&gt;"&amp;"")</f>
         <v>2</v>
       </c>
       <c r="B135" s="17">
@@ -30532,6 +30155,7 @@
       <c r="L135" s="41" t="s">
         <v>998</v>
       </c>
+      <c r="M135" s="20"/>
       <c r="N135" s="29">
         <v>45656</v>
       </c>
@@ -30673,7 +30297,7 @@
     </row>
     <row r="136" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A136" s="10">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(D136,"&lt;&gt;"&amp;"")+COUNTIF(BM136,"&lt;&gt;"&amp;"")</f>
         <v>2</v>
       </c>
       <c r="B136" s="17">
@@ -30706,6 +30330,7 @@
       <c r="L136" s="41" t="s">
         <v>999</v>
       </c>
+      <c r="M136" s="20"/>
       <c r="N136" s="29">
         <v>73537</v>
       </c>
@@ -30847,14 +30472,14 @@
     </row>
     <row r="137" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A137" s="10">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(D137,"&lt;&gt;"&amp;"")+COUNTIF(BM137,"&lt;&gt;"&amp;"")</f>
         <v>2</v>
       </c>
       <c r="B137" s="17">
         <v>135</v>
       </c>
       <c r="C137" s="20" t="s">
-        <v>69</v>
+        <v>1503</v>
       </c>
       <c r="D137" s="20" t="s">
         <v>226</v>
@@ -30880,6 +30505,7 @@
       <c r="L137" s="41" t="s">
         <v>1000</v>
       </c>
+      <c r="M137" s="20"/>
       <c r="N137" s="29">
         <v>70</v>
       </c>
@@ -31021,7 +30647,7 @@
     </row>
     <row r="138" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A138" s="10">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(D138,"&lt;&gt;"&amp;"")+COUNTIF(BM138,"&lt;&gt;"&amp;"")</f>
         <v>2</v>
       </c>
       <c r="B138" s="17">
@@ -31054,6 +30680,7 @@
       <c r="L138" s="41" t="s">
         <v>1001</v>
       </c>
+      <c r="M138" s="20"/>
       <c r="N138" s="29">
         <v>82865</v>
       </c>
@@ -31195,7 +30822,7 @@
     </row>
     <row r="139" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A139" s="10">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(D139,"&lt;&gt;"&amp;"")+COUNTIF(BM139,"&lt;&gt;"&amp;"")</f>
         <v>2</v>
       </c>
       <c r="B139" s="17">
@@ -31228,6 +30855,7 @@
       <c r="L139" s="41" t="s">
         <v>1002</v>
       </c>
+      <c r="M139" s="20"/>
       <c r="N139" s="29">
         <v>199866</v>
       </c>
@@ -31369,7 +30997,7 @@
     </row>
     <row r="140" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A140" s="10">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(D140,"&lt;&gt;"&amp;"")+COUNTIF(BM140,"&lt;&gt;"&amp;"")</f>
         <v>2</v>
       </c>
       <c r="B140" s="17">
@@ -31402,6 +31030,7 @@
       <c r="L140" s="41" t="s">
         <v>1003</v>
       </c>
+      <c r="M140" s="20"/>
       <c r="N140" s="29">
         <v>973</v>
       </c>
@@ -31543,7 +31172,7 @@
     </row>
     <row r="141" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A141" s="10">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(D141,"&lt;&gt;"&amp;"")+COUNTIF(BM141,"&lt;&gt;"&amp;"")</f>
         <v>2</v>
       </c>
       <c r="B141" s="17">
@@ -31576,6 +31205,7 @@
       <c r="L141" s="41" t="s">
         <v>1004</v>
       </c>
+      <c r="M141" s="20"/>
       <c r="N141" s="29">
         <v>112844</v>
       </c>
@@ -31717,7 +31347,7 @@
     </row>
     <row r="142" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A142" s="10">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(D142,"&lt;&gt;"&amp;"")+COUNTIF(BM142,"&lt;&gt;"&amp;"")</f>
         <v>2</v>
       </c>
       <c r="B142" s="17">
@@ -31750,6 +31380,7 @@
       <c r="L142" s="41" t="s">
         <v>1005</v>
       </c>
+      <c r="M142" s="20"/>
       <c r="N142" s="29">
         <v>153333</v>
       </c>
@@ -31891,7 +31522,7 @@
     </row>
     <row r="143" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A143" s="10">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(D143,"&lt;&gt;"&amp;"")+COUNTIF(BM143,"&lt;&gt;"&amp;"")</f>
         <v>2</v>
       </c>
       <c r="B143" s="17">
@@ -31924,6 +31555,7 @@
       <c r="L143" s="41" t="s">
         <v>1006</v>
       </c>
+      <c r="M143" s="20"/>
       <c r="N143" s="29">
         <v>97051</v>
       </c>
@@ -32065,7 +31697,7 @@
     </row>
     <row r="144" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A144" s="10">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(D144,"&lt;&gt;"&amp;"")+COUNTIF(BM144,"&lt;&gt;"&amp;"")</f>
         <v>2</v>
       </c>
       <c r="B144" s="17">
@@ -32098,6 +31730,7 @@
       <c r="L144" s="41" t="s">
         <v>1007</v>
       </c>
+      <c r="M144" s="20"/>
       <c r="N144" s="29">
         <v>121537</v>
       </c>
@@ -32239,7 +31872,7 @@
     </row>
     <row r="145" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A145" s="10">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(D145,"&lt;&gt;"&amp;"")+COUNTIF(BM145,"&lt;&gt;"&amp;"")</f>
         <v>2</v>
       </c>
       <c r="B145" s="17">
@@ -32272,6 +31905,7 @@
       <c r="L145" s="41" t="s">
         <v>1008</v>
       </c>
+      <c r="M145" s="20"/>
       <c r="N145" s="29">
         <v>62920</v>
       </c>
@@ -32413,7 +32047,7 @@
     </row>
     <row r="146" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A146" s="10">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(D146,"&lt;&gt;"&amp;"")+COUNTIF(BM146,"&lt;&gt;"&amp;"")</f>
         <v>2</v>
       </c>
       <c r="B146" s="17">
@@ -32446,6 +32080,7 @@
       <c r="L146" s="41" t="s">
         <v>1009</v>
       </c>
+      <c r="M146" s="20"/>
       <c r="N146" s="29">
         <v>89955</v>
       </c>
@@ -32587,7 +32222,7 @@
     </row>
     <row r="147" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A147" s="10">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(D147,"&lt;&gt;"&amp;"")+COUNTIF(BM147,"&lt;&gt;"&amp;"")</f>
         <v>2</v>
       </c>
       <c r="B147" s="17">
@@ -32620,6 +32255,7 @@
       <c r="L147" s="41" t="s">
         <v>1010</v>
       </c>
+      <c r="M147" s="20"/>
       <c r="N147" s="29">
         <v>83723</v>
       </c>
@@ -32761,7 +32397,7 @@
     </row>
     <row r="148" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A148" s="10">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(D148,"&lt;&gt;"&amp;"")+COUNTIF(BM148,"&lt;&gt;"&amp;"")</f>
         <v>2</v>
       </c>
       <c r="B148" s="17">
@@ -32794,6 +32430,7 @@
       <c r="L148" s="41" t="s">
         <v>1011</v>
       </c>
+      <c r="M148" s="20"/>
       <c r="N148" s="29">
         <v>54995</v>
       </c>
@@ -32935,7 +32572,7 @@
     </row>
     <row r="149" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A149" s="10">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(D149,"&lt;&gt;"&amp;"")+COUNTIF(BM149,"&lt;&gt;"&amp;"")</f>
         <v>2</v>
       </c>
       <c r="B149" s="17">
@@ -32968,6 +32605,7 @@
       <c r="L149" s="41" t="s">
         <v>1012</v>
       </c>
+      <c r="M149" s="20"/>
       <c r="N149" s="29">
         <v>60763</v>
       </c>
@@ -33109,7 +32747,7 @@
     </row>
     <row r="150" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A150" s="10">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(D150,"&lt;&gt;"&amp;"")+COUNTIF(BM150,"&lt;&gt;"&amp;"")</f>
         <v>2</v>
       </c>
       <c r="B150" s="17">
@@ -33142,6 +32780,7 @@
       <c r="L150" s="41" t="s">
         <v>1013</v>
       </c>
+      <c r="M150" s="20"/>
       <c r="N150" s="29">
         <v>70882</v>
       </c>
@@ -33283,7 +32922,7 @@
     </row>
     <row r="151" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A151" s="10">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(D151,"&lt;&gt;"&amp;"")+COUNTIF(BM151,"&lt;&gt;"&amp;"")</f>
         <v>2</v>
       </c>
       <c r="B151" s="17">
@@ -33316,6 +32955,7 @@
       <c r="L151" s="41" t="s">
         <v>1014</v>
       </c>
+      <c r="M151" s="20"/>
       <c r="N151" s="29">
         <v>61419</v>
       </c>
@@ -33457,7 +33097,7 @@
     </row>
     <row r="152" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A152" s="10">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(D152,"&lt;&gt;"&amp;"")+COUNTIF(BM152,"&lt;&gt;"&amp;"")</f>
         <v>2</v>
       </c>
       <c r="B152" s="17">
@@ -33490,6 +33130,7 @@
       <c r="L152" s="41" t="s">
         <v>1015</v>
       </c>
+      <c r="M152" s="20"/>
       <c r="N152" s="29">
         <v>74187</v>
       </c>
@@ -33631,7 +33272,7 @@
     </row>
     <row r="153" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A153" s="10">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(D153,"&lt;&gt;"&amp;"")+COUNTIF(BM153,"&lt;&gt;"&amp;"")</f>
         <v>2</v>
       </c>
       <c r="B153" s="17">
@@ -33664,6 +33305,7 @@
       <c r="L153" s="41" t="s">
         <v>1016</v>
       </c>
+      <c r="M153" s="20"/>
       <c r="N153" s="29">
         <v>95104</v>
       </c>
@@ -33805,7 +33447,7 @@
     </row>
     <row r="154" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A154" s="10">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(D154,"&lt;&gt;"&amp;"")+COUNTIF(BM154,"&lt;&gt;"&amp;"")</f>
         <v>2</v>
       </c>
       <c r="B154" s="17">
@@ -33838,6 +33480,7 @@
       <c r="L154" s="41" t="s">
         <v>1017</v>
       </c>
+      <c r="M154" s="20"/>
       <c r="N154" s="29">
         <v>58848</v>
       </c>
@@ -33979,7 +33622,7 @@
     </row>
     <row r="155" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A155" s="10">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(D155,"&lt;&gt;"&amp;"")+COUNTIF(BM155,"&lt;&gt;"&amp;"")</f>
         <v>2</v>
       </c>
       <c r="B155" s="17">
@@ -34012,6 +33655,7 @@
       <c r="L155" s="41" t="s">
         <v>1018</v>
       </c>
+      <c r="M155" s="20"/>
       <c r="N155" s="29">
         <v>108804</v>
       </c>
@@ -34153,7 +33797,7 @@
     </row>
     <row r="156" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A156" s="10">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(D156,"&lt;&gt;"&amp;"")+COUNTIF(BM156,"&lt;&gt;"&amp;"")</f>
         <v>2</v>
       </c>
       <c r="B156" s="17">
@@ -34186,6 +33830,7 @@
       <c r="L156" s="41" t="s">
         <v>1019</v>
       </c>
+      <c r="M156" s="20"/>
       <c r="N156" s="29">
         <v>64436</v>
       </c>
@@ -34327,7 +33972,7 @@
     </row>
     <row r="157" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A157" s="10">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(D157,"&lt;&gt;"&amp;"")+COUNTIF(BM157,"&lt;&gt;"&amp;"")</f>
         <v>2</v>
       </c>
       <c r="B157" s="17">
@@ -34360,6 +34005,7 @@
       <c r="L157" s="41" t="s">
         <v>1020</v>
       </c>
+      <c r="M157" s="20"/>
       <c r="N157" s="29">
         <v>106272</v>
       </c>
@@ -34501,7 +34147,7 @@
     </row>
     <row r="158" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A158" s="10">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(D158,"&lt;&gt;"&amp;"")+COUNTIF(BM158,"&lt;&gt;"&amp;"")</f>
         <v>2</v>
       </c>
       <c r="B158" s="17">
@@ -34534,6 +34180,7 @@
       <c r="L158" s="41" t="s">
         <v>1021</v>
       </c>
+      <c r="M158" s="20"/>
       <c r="N158" s="29">
         <v>65454</v>
       </c>
@@ -34675,7 +34322,7 @@
     </row>
     <row r="159" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A159" s="10">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(D159,"&lt;&gt;"&amp;"")+COUNTIF(BM159,"&lt;&gt;"&amp;"")</f>
         <v>2</v>
       </c>
       <c r="B159" s="17">
@@ -34708,6 +34355,7 @@
       <c r="L159" s="41" t="s">
         <v>1022</v>
       </c>
+      <c r="M159" s="20"/>
       <c r="N159" s="29">
         <v>78151</v>
       </c>
@@ -34849,7 +34497,7 @@
     </row>
     <row r="160" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A160" s="10">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(D160,"&lt;&gt;"&amp;"")+COUNTIF(BM160,"&lt;&gt;"&amp;"")</f>
         <v>2</v>
       </c>
       <c r="B160" s="17">
@@ -34882,6 +34530,7 @@
       <c r="L160" s="41" t="s">
         <v>1023</v>
       </c>
+      <c r="M160" s="20"/>
       <c r="N160" s="29">
         <v>75078</v>
       </c>
@@ -35023,7 +34672,7 @@
     </row>
     <row r="161" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A161" s="10">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(D161,"&lt;&gt;"&amp;"")+COUNTIF(BM161,"&lt;&gt;"&amp;"")</f>
         <v>2</v>
       </c>
       <c r="B161" s="17">
@@ -35056,6 +34705,7 @@
       <c r="L161" s="41" t="s">
         <v>1024</v>
       </c>
+      <c r="M161" s="20"/>
       <c r="N161" s="29">
         <v>99559</v>
       </c>
@@ -35197,7 +34847,7 @@
     </row>
     <row r="162" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A162" s="10">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(D162,"&lt;&gt;"&amp;"")+COUNTIF(BM162,"&lt;&gt;"&amp;"")</f>
         <v>2</v>
       </c>
       <c r="B162" s="17">
@@ -35230,6 +34880,7 @@
       <c r="L162" s="41" t="s">
         <v>1025</v>
       </c>
+      <c r="M162" s="20"/>
       <c r="N162" s="29">
         <v>89968</v>
       </c>
@@ -35371,7 +35022,7 @@
     </row>
     <row r="163" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A163" s="10">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(D163,"&lt;&gt;"&amp;"")+COUNTIF(BM163,"&lt;&gt;"&amp;"")</f>
         <v>2</v>
       </c>
       <c r="B163" s="17">
@@ -35404,6 +35055,7 @@
       <c r="L163" s="41" t="s">
         <v>1026</v>
       </c>
+      <c r="M163" s="20"/>
       <c r="N163" s="29">
         <v>121490</v>
       </c>
@@ -35545,7 +35197,7 @@
     </row>
     <row r="164" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A164" s="10">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(D164,"&lt;&gt;"&amp;"")+COUNTIF(BM164,"&lt;&gt;"&amp;"")</f>
         <v>2</v>
       </c>
       <c r="B164" s="17">
@@ -35578,6 +35230,7 @@
       <c r="L164" s="41" t="s">
         <v>1027</v>
       </c>
+      <c r="M164" s="20"/>
       <c r="N164" s="29">
         <v>75192</v>
       </c>
@@ -35719,7 +35372,7 @@
     </row>
     <row r="165" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A165" s="10">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(D165,"&lt;&gt;"&amp;"")+COUNTIF(BM165,"&lt;&gt;"&amp;"")</f>
         <v>2</v>
       </c>
       <c r="B165" s="17">
@@ -35752,6 +35405,7 @@
       <c r="L165" s="41" t="s">
         <v>1028</v>
       </c>
+      <c r="M165" s="20"/>
       <c r="N165" s="29">
         <v>90791</v>
       </c>
@@ -35893,7 +35547,7 @@
     </row>
     <row r="166" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A166" s="10">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(D166,"&lt;&gt;"&amp;"")+COUNTIF(BM166,"&lt;&gt;"&amp;"")</f>
         <v>2</v>
       </c>
       <c r="B166" s="17">
@@ -35926,6 +35580,7 @@
       <c r="L166" s="41" t="s">
         <v>1029</v>
       </c>
+      <c r="M166" s="20"/>
       <c r="N166" s="29">
         <v>60830</v>
       </c>
@@ -36067,7 +35722,7 @@
     </row>
     <row r="167" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A167" s="10">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(D167,"&lt;&gt;"&amp;"")+COUNTIF(BM167,"&lt;&gt;"&amp;"")</f>
         <v>2</v>
       </c>
       <c r="B167" s="17">
@@ -36100,6 +35755,7 @@
       <c r="L167" s="41" t="s">
         <v>1030</v>
       </c>
+      <c r="M167" s="20"/>
       <c r="N167" s="29">
         <v>61471</v>
       </c>
@@ -36241,7 +35897,7 @@
     </row>
     <row r="168" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A168" s="10">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(D168,"&lt;&gt;"&amp;"")+COUNTIF(BM168,"&lt;&gt;"&amp;"")</f>
         <v>2</v>
       </c>
       <c r="B168" s="17">
@@ -36274,6 +35930,7 @@
       <c r="L168" s="41" t="s">
         <v>1031</v>
       </c>
+      <c r="M168" s="20"/>
       <c r="N168" s="29">
         <v>6039</v>
       </c>
@@ -36415,7 +36072,7 @@
     </row>
     <row r="169" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A169" s="10">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(D169,"&lt;&gt;"&amp;"")+COUNTIF(BM169,"&lt;&gt;"&amp;"")</f>
         <v>2</v>
       </c>
       <c r="B169" s="17">
@@ -36448,6 +36105,7 @@
       <c r="L169" s="41" t="s">
         <v>1032</v>
       </c>
+      <c r="M169" s="20"/>
       <c r="N169" s="29">
         <v>87864</v>
       </c>
@@ -36589,7 +36247,7 @@
     </row>
     <row r="170" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A170" s="10">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(D170,"&lt;&gt;"&amp;"")+COUNTIF(BM170,"&lt;&gt;"&amp;"")</f>
         <v>2</v>
       </c>
       <c r="B170" s="17">
@@ -36622,6 +36280,7 @@
       <c r="L170" s="41" t="s">
         <v>1033</v>
       </c>
+      <c r="M170" s="20"/>
       <c r="N170" s="29">
         <v>85687</v>
       </c>
@@ -36763,7 +36422,7 @@
     </row>
     <row r="171" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A171" s="10">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(D171,"&lt;&gt;"&amp;"")+COUNTIF(BM171,"&lt;&gt;"&amp;"")</f>
         <v>2</v>
       </c>
       <c r="B171" s="17">
@@ -36796,6 +36455,7 @@
       <c r="L171" s="41" t="s">
         <v>1034</v>
       </c>
+      <c r="M171" s="20"/>
       <c r="N171" s="29">
         <v>62998</v>
       </c>
@@ -36937,7 +36597,7 @@
     </row>
     <row r="172" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A172" s="10">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(D172,"&lt;&gt;"&amp;"")+COUNTIF(BM172,"&lt;&gt;"&amp;"")</f>
         <v>2</v>
       </c>
       <c r="B172" s="17">
@@ -36970,6 +36630,7 @@
       <c r="L172" s="41" t="s">
         <v>1035</v>
       </c>
+      <c r="M172" s="20"/>
       <c r="N172" s="29">
         <v>61925</v>
       </c>
@@ -37111,7 +36772,7 @@
     </row>
     <row r="173" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A173" s="10">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(D173,"&lt;&gt;"&amp;"")+COUNTIF(BM173,"&lt;&gt;"&amp;"")</f>
         <v>2</v>
       </c>
       <c r="B173" s="17">
@@ -37144,6 +36805,7 @@
       <c r="L173" s="41" t="s">
         <v>1036</v>
       </c>
+      <c r="M173" s="20"/>
       <c r="N173" s="29">
         <v>90979</v>
       </c>
@@ -37285,7 +36947,7 @@
     </row>
     <row r="174" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A174" s="10">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(D174,"&lt;&gt;"&amp;"")+COUNTIF(BM174,"&lt;&gt;"&amp;"")</f>
         <v>2</v>
       </c>
       <c r="B174" s="17">
@@ -37318,6 +36980,7 @@
       <c r="L174" s="41" t="s">
         <v>1037</v>
       </c>
+      <c r="M174" s="20"/>
       <c r="N174" s="29">
         <v>73705</v>
       </c>
@@ -37459,7 +37122,7 @@
     </row>
     <row r="175" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A175" s="10">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(D175,"&lt;&gt;"&amp;"")+COUNTIF(BM175,"&lt;&gt;"&amp;"")</f>
         <v>2</v>
       </c>
       <c r="B175" s="17">
@@ -37492,6 +37155,7 @@
       <c r="L175" s="41" t="s">
         <v>1038</v>
       </c>
+      <c r="M175" s="20"/>
       <c r="N175" s="29">
         <v>76233</v>
       </c>
@@ -37633,7 +37297,7 @@
     </row>
     <row r="176" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A176" s="10">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(D176,"&lt;&gt;"&amp;"")+COUNTIF(BM176,"&lt;&gt;"&amp;"")</f>
         <v>2</v>
       </c>
       <c r="B176" s="17">
@@ -37666,6 +37330,7 @@
       <c r="L176" s="41" t="s">
         <v>1039</v>
       </c>
+      <c r="M176" s="20"/>
       <c r="N176" s="29">
         <v>84961</v>
       </c>
@@ -37807,7 +37472,7 @@
     </row>
     <row r="177" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A177" s="10">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(D177,"&lt;&gt;"&amp;"")+COUNTIF(BM177,"&lt;&gt;"&amp;"")</f>
         <v>2</v>
       </c>
       <c r="B177" s="17">
@@ -37840,6 +37505,7 @@
       <c r="L177" s="41" t="s">
         <v>1040</v>
       </c>
+      <c r="M177" s="20"/>
       <c r="N177" s="29">
         <v>99537</v>
       </c>
@@ -37981,7 +37647,7 @@
     </row>
     <row r="178" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A178" s="10">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(D178,"&lt;&gt;"&amp;"")+COUNTIF(BM178,"&lt;&gt;"&amp;"")</f>
         <v>2</v>
       </c>
       <c r="B178" s="17">
@@ -38014,6 +37680,7 @@
       <c r="L178" s="41" t="s">
         <v>1041</v>
       </c>
+      <c r="M178" s="20"/>
       <c r="N178" s="29">
         <v>110186</v>
       </c>
@@ -38155,7 +37822,7 @@
     </row>
     <row r="179" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A179" s="10">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(D179,"&lt;&gt;"&amp;"")+COUNTIF(BM179,"&lt;&gt;"&amp;"")</f>
         <v>2</v>
       </c>
       <c r="B179" s="17">
@@ -38188,6 +37855,7 @@
       <c r="L179" s="41" t="s">
         <v>1042</v>
       </c>
+      <c r="M179" s="20"/>
       <c r="N179" s="29">
         <v>77868</v>
       </c>
@@ -38329,7 +37997,7 @@
     </row>
     <row r="180" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A180" s="10">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(D180,"&lt;&gt;"&amp;"")+COUNTIF(BM180,"&lt;&gt;"&amp;"")</f>
         <v>2</v>
       </c>
       <c r="B180" s="17">
@@ -38362,6 +38030,7 @@
       <c r="L180" s="41" t="s">
         <v>1043</v>
       </c>
+      <c r="M180" s="20"/>
       <c r="N180" s="29">
         <v>64718</v>
       </c>
@@ -38503,7 +38172,7 @@
     </row>
     <row r="181" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A181" s="10">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(D181,"&lt;&gt;"&amp;"")+COUNTIF(BM181,"&lt;&gt;"&amp;"")</f>
         <v>2</v>
       </c>
       <c r="B181" s="17">
@@ -38536,6 +38205,7 @@
       <c r="L181" s="41" t="s">
         <v>1044</v>
       </c>
+      <c r="M181" s="20"/>
       <c r="N181" s="29">
         <v>76070</v>
       </c>
@@ -38677,7 +38347,7 @@
     </row>
     <row r="182" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A182" s="10">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(D182,"&lt;&gt;"&amp;"")+COUNTIF(BM182,"&lt;&gt;"&amp;"")</f>
         <v>2</v>
       </c>
       <c r="B182" s="17">
@@ -38710,6 +38380,7 @@
       <c r="L182" s="41" t="s">
         <v>1045</v>
       </c>
+      <c r="M182" s="20"/>
       <c r="N182" s="29">
         <v>111351</v>
       </c>
@@ -38851,7 +38522,7 @@
     </row>
     <row r="183" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A183" s="10">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(D183,"&lt;&gt;"&amp;"")+COUNTIF(BM183,"&lt;&gt;"&amp;"")</f>
         <v>2</v>
       </c>
       <c r="B183" s="17">
@@ -38884,6 +38555,7 @@
       <c r="L183" s="41" t="s">
         <v>1046</v>
       </c>
+      <c r="M183" s="20"/>
       <c r="N183" s="29">
         <v>111931</v>
       </c>
@@ -39025,7 +38697,7 @@
     </row>
     <row r="184" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A184" s="10">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(D184,"&lt;&gt;"&amp;"")+COUNTIF(BM184,"&lt;&gt;"&amp;"")</f>
         <v>2</v>
       </c>
       <c r="B184" s="17">
@@ -39058,6 +38730,7 @@
       <c r="L184" s="41" t="s">
         <v>1047</v>
       </c>
+      <c r="M184" s="20"/>
       <c r="N184" s="29">
         <v>99732</v>
       </c>
@@ -39199,7 +38872,7 @@
     </row>
     <row r="185" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A185" s="10">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(D185,"&lt;&gt;"&amp;"")+COUNTIF(BM185,"&lt;&gt;"&amp;"")</f>
         <v>2</v>
       </c>
       <c r="B185" s="17">
@@ -39232,6 +38905,7 @@
       <c r="L185" s="41" t="s">
         <v>1048</v>
       </c>
+      <c r="M185" s="20"/>
       <c r="N185" s="29">
         <v>65030</v>
       </c>
@@ -39373,7 +39047,7 @@
     </row>
     <row r="186" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A186" s="10">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(D186,"&lt;&gt;"&amp;"")+COUNTIF(BM186,"&lt;&gt;"&amp;"")</f>
         <v>2</v>
       </c>
       <c r="B186" s="17">
@@ -39406,6 +39080,7 @@
       <c r="L186" s="41" t="s">
         <v>1049</v>
       </c>
+      <c r="M186" s="20"/>
       <c r="N186" s="29">
         <v>91082</v>
       </c>
@@ -39547,7 +39222,7 @@
     </row>
     <row r="187" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A187" s="10">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(D187,"&lt;&gt;"&amp;"")+COUNTIF(BM187,"&lt;&gt;"&amp;"")</f>
         <v>2</v>
       </c>
       <c r="B187" s="17">
@@ -39580,6 +39255,7 @@
       <c r="L187" s="41" t="s">
         <v>1050</v>
       </c>
+      <c r="M187" s="20"/>
       <c r="N187" s="29">
         <v>82784</v>
       </c>
@@ -39721,7 +39397,7 @@
     </row>
     <row r="188" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A188" s="10">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(D188,"&lt;&gt;"&amp;"")+COUNTIF(BM188,"&lt;&gt;"&amp;"")</f>
         <v>2</v>
       </c>
       <c r="B188" s="17">
@@ -39754,6 +39430,7 @@
       <c r="L188" s="41" t="s">
         <v>1051</v>
       </c>
+      <c r="M188" s="20"/>
       <c r="N188" s="29">
         <v>71516</v>
       </c>
@@ -39895,7 +39572,7 @@
     </row>
     <row r="189" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A189" s="10">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(D189,"&lt;&gt;"&amp;"")+COUNTIF(BM189,"&lt;&gt;"&amp;"")</f>
         <v>2</v>
       </c>
       <c r="B189" s="17">
@@ -39928,6 +39605,7 @@
       <c r="L189" s="41" t="s">
         <v>1052</v>
       </c>
+      <c r="M189" s="20"/>
       <c r="N189" s="29">
         <v>69600</v>
       </c>
@@ -40069,7 +39747,7 @@
     </row>
     <row r="190" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A190" s="10">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(D190,"&lt;&gt;"&amp;"")+COUNTIF(BM190,"&lt;&gt;"&amp;"")</f>
         <v>2</v>
       </c>
       <c r="B190" s="17">
@@ -40102,6 +39780,7 @@
       <c r="L190" s="41" t="s">
         <v>1053</v>
       </c>
+      <c r="M190" s="20"/>
       <c r="N190" s="29">
         <v>92406</v>
       </c>
@@ -40243,7 +39922,7 @@
     </row>
     <row r="191" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A191" s="10">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(D191,"&lt;&gt;"&amp;"")+COUNTIF(BM191,"&lt;&gt;"&amp;"")</f>
         <v>2</v>
       </c>
       <c r="B191" s="17">
@@ -40276,6 +39955,7 @@
       <c r="L191" s="41" t="s">
         <v>1054</v>
       </c>
+      <c r="M191" s="20"/>
       <c r="N191" s="29">
         <v>68075</v>
       </c>
@@ -40417,7 +40097,7 @@
     </row>
     <row r="192" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A192" s="10">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(D192,"&lt;&gt;"&amp;"")+COUNTIF(BM192,"&lt;&gt;"&amp;"")</f>
         <v>2</v>
       </c>
       <c r="B192" s="17">
@@ -40450,6 +40130,7 @@
       <c r="L192" s="41" t="s">
         <v>1055</v>
       </c>
+      <c r="M192" s="20"/>
       <c r="N192" s="29">
         <v>80863</v>
       </c>
@@ -40591,7 +40272,7 @@
     </row>
     <row r="193" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A193" s="10">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(D193,"&lt;&gt;"&amp;"")+COUNTIF(BM193,"&lt;&gt;"&amp;"")</f>
         <v>2</v>
       </c>
       <c r="B193" s="17">
@@ -40624,6 +40305,7 @@
       <c r="L193" s="41" t="s">
         <v>1056</v>
       </c>
+      <c r="M193" s="20"/>
       <c r="N193" s="29">
         <v>71521</v>
       </c>
@@ -40765,7 +40447,7 @@
     </row>
     <row r="194" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A194" s="10">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(D194,"&lt;&gt;"&amp;"")+COUNTIF(BM194,"&lt;&gt;"&amp;"")</f>
         <v>2</v>
       </c>
       <c r="B194" s="17">
@@ -40798,6 +40480,7 @@
       <c r="L194" s="41" t="s">
         <v>1057</v>
       </c>
+      <c r="M194" s="20"/>
       <c r="N194" s="29">
         <v>85783</v>
       </c>
@@ -40939,14 +40622,14 @@
     </row>
     <row r="195" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A195" s="10">
-        <f t="shared" ref="A195" si="3">COUNTIF(D195,"&lt;&gt;"&amp;"")+COUNTIF(BM195,"&lt;&gt;"&amp;"")</f>
+        <f>COUNTIF(D195,"&lt;&gt;"&amp;"")+COUNTIF(BM195,"&lt;&gt;"&amp;"")</f>
         <v>2</v>
       </c>
       <c r="B195" s="17">
         <v>193</v>
       </c>
       <c r="C195" s="20" t="s">
-        <v>69</v>
+        <v>1503</v>
       </c>
       <c r="D195" s="38" t="s">
         <v>284</v>
@@ -40972,6 +40655,7 @@
       <c r="L195" s="41" t="s">
         <v>1058</v>
       </c>
+      <c r="M195" s="20"/>
       <c r="N195" s="29">
         <v>522</v>
       </c>
@@ -41177,9 +40861,19 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{31EA8456-A0B1-A842-BBBA-1FCBF1E560D2}" topLeftCell="BD1">
-      <pane ySplit="2" topLeftCell="A273" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="BG334" sqref="BG334"/>
+    <customSheetView guid="{06B92370-743D-804F-912C-658BE37B1274}" topLeftCell="X1">
+      <pane ySplit="2" topLeftCell="A314" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="AD344" sqref="AD344"/>
+      <rowBreaks count="2" manualBreakCount="2">
+        <brk id="1" max="16383" man="1"/>
+        <brk id="325" max="16383" man="1"/>
+      </rowBreaks>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+    </customSheetView>
+    <customSheetView guid="{CB40A2B6-4618-A74E-89AF-8E1F0A1F3C2E}" topLeftCell="AP1">
+      <pane ySplit="2.03125" topLeftCell="A342" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="BA367" sqref="BA367"/>
       <rowBreaks count="2" manualBreakCount="2">
         <brk id="1" max="16383" man="1"/>
         <brk id="325" max="16383" man="1"/>
@@ -41197,19 +40891,9 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
     </customSheetView>
-    <customSheetView guid="{CB40A2B6-4618-A74E-89AF-8E1F0A1F3C2E}" topLeftCell="AP1">
-      <pane ySplit="2.03125" topLeftCell="A342" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="BA367" sqref="BA367"/>
-      <rowBreaks count="2" manualBreakCount="2">
-        <brk id="1" max="16383" man="1"/>
-        <brk id="325" max="16383" man="1"/>
-      </rowBreaks>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-    </customSheetView>
-    <customSheetView guid="{06B92370-743D-804F-912C-658BE37B1274}" topLeftCell="X1">
-      <pane ySplit="2" topLeftCell="A314" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="AD344" sqref="AD344"/>
+    <customSheetView guid="{31EA8456-A0B1-A842-BBBA-1FCBF1E560D2}" topLeftCell="BD1">
+      <pane ySplit="2" topLeftCell="A273" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="BG334" sqref="BG334"/>
       <rowBreaks count="2" manualBreakCount="2">
         <brk id="1" max="16383" man="1"/>
         <brk id="325" max="16383" man="1"/>
@@ -41225,10 +40909,10 @@
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="AJ3:AJ34">
-    <cfRule type="containsBlanks" dxfId="15" priority="14" stopIfTrue="1">
+    <cfRule type="containsBlanks" dxfId="7" priority="14" stopIfTrue="1">
       <formula>LEN(TRIM(AJ3))=0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="15" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="15" operator="lessThan">
       <formula>0.02</formula>
     </cfRule>
   </conditionalFormatting>
@@ -41242,24 +40926,24 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N3:O211">
-    <cfRule type="aboveAverage" dxfId="13" priority="10" aboveAverage="0" stdDev="1"/>
-    <cfRule type="expression" dxfId="12" priority="12">
+    <cfRule type="aboveAverage" dxfId="5" priority="10" aboveAverage="0" stdDev="1"/>
+    <cfRule type="expression" dxfId="4" priority="12">
       <formula>$N3&lt;&gt;$O3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N2:O1048576">
-    <cfRule type="containsBlanks" dxfId="11" priority="2" stopIfTrue="1">
+    <cfRule type="containsBlanks" dxfId="3" priority="2" stopIfTrue="1">
       <formula>LEN(TRIM(N2))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D195">
-    <cfRule type="duplicateValues" dxfId="10" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="26"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P1:P1048576">
-    <cfRule type="aboveAverage" dxfId="9" priority="3" stdDev="1"/>
+    <cfRule type="aboveAverage" dxfId="1" priority="3" stdDev="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N2:O1048576">
-    <cfRule type="cellIs" dxfId="8" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="6" operator="lessThan">
       <formula>706</formula>
     </cfRule>
   </conditionalFormatting>

--- a/metadata/excel/projects/uppsala_universitet/merce_temp_change/metadata.xlsx
+++ b/metadata/excel/projects/uppsala_universitet/merce_temp_change/metadata.xlsx
@@ -6093,10 +6093,10 @@
   </sheetPr>
   <dimension ref="A1:BZ211"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScaleNormal="107" zoomScalePageLayoutView="107" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="107" zoomScalePageLayoutView="107" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozenSplit"/>
       <selection activeCell="X1" sqref="X1"/>
-      <selection pane="bottomLeft" activeCell="N185" sqref="N185"/>
+      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
